--- a/data/zotero_data/bar-graph-classification-sorted.xlsx
+++ b/data/zotero_data/bar-graph-classification-sorted.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028 UC Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028 UC Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/zotero_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF15B9D3-45D0-DF48-94FF-3DEFE962AE2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33AD38FA-7D4C-7D40-8983-4ABD161AE05B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="500" windowWidth="37620" windowHeight="21100" xr2:uid="{DB5BE922-A247-3047-A984-8AB957C56D7E}"/>
   </bookViews>
@@ -1012,7 +1012,7 @@
   <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1084,14 +1084,14 @@
         <v>18</v>
       </c>
       <c r="D2" s="1">
-        <f>B2-C2</f>
+        <f t="shared" ref="D2:D14" si="0">B2-C2</f>
         <v>91</v>
       </c>
       <c r="E2" s="1">
         <v>50</v>
       </c>
       <c r="F2" s="1">
-        <f>D2-E2</f>
+        <f t="shared" ref="F2:F14" si="1">D2-E2</f>
         <v>41</v>
       </c>
       <c r="G2" s="1">
@@ -1104,31 +1104,31 @@
         <v>2</v>
       </c>
       <c r="J2" s="2">
-        <f>C2/B2*100</f>
+        <f t="shared" ref="J2:J14" si="2">C2/B2*100</f>
         <v>16.513761467889911</v>
       </c>
       <c r="K2" s="2">
-        <f>D2/B2*100</f>
+        <f t="shared" ref="K2:K14" si="3">D2/B2*100</f>
         <v>83.486238532110093</v>
       </c>
       <c r="L2" s="2">
-        <f>E2/D2*100</f>
+        <f t="shared" ref="L2:L14" si="4">E2/D2*100</f>
         <v>54.945054945054949</v>
       </c>
       <c r="M2" s="2">
-        <f>F2/D2*100</f>
+        <f t="shared" ref="M2:M14" si="5">F2/D2*100</f>
         <v>45.054945054945058</v>
       </c>
       <c r="N2" s="2">
-        <f>G2/D2*100</f>
+        <f t="shared" ref="N2:N14" si="6">G2/D2*100</f>
         <v>25.274725274725274</v>
       </c>
       <c r="O2" s="2">
-        <f>H2/D2*100</f>
+        <f t="shared" ref="O2:O14" si="7">H2/D2*100</f>
         <v>23.076923076923077</v>
       </c>
       <c r="P2" s="2">
-        <f>I2/D2*100</f>
+        <f t="shared" ref="P2:P14" si="8">I2/D2*100</f>
         <v>2.197802197802198</v>
       </c>
     </row>
@@ -1143,14 +1143,14 @@
         <v>14</v>
       </c>
       <c r="D3" s="1">
-        <f>B3-C3</f>
+        <f t="shared" si="0"/>
         <v>283</v>
       </c>
       <c r="E3" s="6">
         <v>175</v>
       </c>
       <c r="F3" s="1">
-        <f>D3-E3</f>
+        <f t="shared" si="1"/>
         <v>108</v>
       </c>
       <c r="G3" s="6">
@@ -1163,31 +1163,31 @@
         <v>7</v>
       </c>
       <c r="J3" s="2">
-        <f>C3/B3*100</f>
+        <f t="shared" si="2"/>
         <v>4.7138047138047137</v>
       </c>
       <c r="K3" s="2">
-        <f>D3/B3*100</f>
+        <f t="shared" si="3"/>
         <v>95.28619528619528</v>
       </c>
       <c r="L3" s="2">
-        <f>E3/D3*100</f>
+        <f t="shared" si="4"/>
         <v>61.837455830388691</v>
       </c>
       <c r="M3" s="2">
-        <f>F3/D3*100</f>
+        <f t="shared" si="5"/>
         <v>38.162544169611309</v>
       </c>
       <c r="N3" s="2">
-        <f>G3/D3*100</f>
+        <f t="shared" si="6"/>
         <v>17.667844522968199</v>
       </c>
       <c r="O3" s="2">
-        <f>H3/D3*100</f>
+        <f t="shared" si="7"/>
         <v>21.554770318021202</v>
       </c>
       <c r="P3" s="2">
-        <f>I3/D3*100</f>
+        <f t="shared" si="8"/>
         <v>2.4734982332155475</v>
       </c>
     </row>
@@ -1202,14 +1202,14 @@
         <v>24</v>
       </c>
       <c r="D4" s="1">
-        <f>B4-C4</f>
+        <f t="shared" si="0"/>
         <v>224</v>
       </c>
       <c r="E4" s="1">
         <v>139</v>
       </c>
       <c r="F4" s="1">
-        <f>D4-E4</f>
+        <f t="shared" si="1"/>
         <v>85</v>
       </c>
       <c r="G4" s="1">
@@ -1222,31 +1222,31 @@
         <v>14</v>
       </c>
       <c r="J4" s="2">
-        <f>C4/B4*100</f>
+        <f t="shared" si="2"/>
         <v>9.67741935483871</v>
       </c>
       <c r="K4" s="2">
-        <f>D4/B4*100</f>
+        <f t="shared" si="3"/>
         <v>90.322580645161281</v>
       </c>
       <c r="L4" s="2">
-        <f>E4/D4*100</f>
+        <f t="shared" si="4"/>
         <v>62.053571428571431</v>
       </c>
       <c r="M4" s="2">
-        <f>F4/D4*100</f>
+        <f t="shared" si="5"/>
         <v>37.946428571428569</v>
       </c>
       <c r="N4" s="2">
-        <f>G4/D4*100</f>
+        <f t="shared" si="6"/>
         <v>21.875</v>
       </c>
       <c r="O4" s="2">
-        <f>H4/D4*100</f>
+        <f t="shared" si="7"/>
         <v>15.178571428571427</v>
       </c>
       <c r="P4" s="2">
-        <f>I4/D4*100</f>
+        <f t="shared" si="8"/>
         <v>6.25</v>
       </c>
     </row>
@@ -1261,14 +1261,14 @@
         <v>5</v>
       </c>
       <c r="D5" s="1">
-        <f>B5-C5</f>
+        <f t="shared" si="0"/>
         <v>111</v>
       </c>
       <c r="E5" s="1">
         <v>73</v>
       </c>
       <c r="F5" s="1">
-        <f>D5-E5</f>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="G5" s="1">
@@ -1278,35 +1278,35 @@
         <v>21</v>
       </c>
       <c r="I5" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J5" s="2">
-        <f>C5/B5*100</f>
+        <f t="shared" si="2"/>
         <v>4.3103448275862073</v>
       </c>
       <c r="K5" s="2">
-        <f>D5/B5*100</f>
+        <f t="shared" si="3"/>
         <v>95.689655172413794</v>
       </c>
       <c r="L5" s="2">
-        <f>E5/D5*100</f>
+        <f t="shared" si="4"/>
         <v>65.765765765765778</v>
       </c>
       <c r="M5" s="2">
-        <f>F5/D5*100</f>
+        <f t="shared" si="5"/>
         <v>34.234234234234236</v>
       </c>
       <c r="N5" s="2">
-        <f>G5/D5*100</f>
+        <f t="shared" si="6"/>
         <v>18.018018018018019</v>
       </c>
       <c r="O5" s="2">
-        <f>H5/D5*100</f>
+        <f t="shared" si="7"/>
         <v>18.918918918918919</v>
       </c>
       <c r="P5" s="2">
-        <f>I5/D5*100</f>
-        <v>1.8018018018018018</v>
+        <f t="shared" si="8"/>
+        <v>2.7027027027027026</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
@@ -1320,14 +1320,14 @@
         <v>0</v>
       </c>
       <c r="D6" s="1">
-        <f>B6-C6</f>
+        <f t="shared" si="0"/>
         <v>75</v>
       </c>
       <c r="E6" s="1">
         <v>53</v>
       </c>
       <c r="F6" s="1">
-        <f>D6-E6</f>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="G6" s="1">
@@ -1340,31 +1340,31 @@
         <v>2</v>
       </c>
       <c r="J6" s="2">
-        <f>C6/B6*100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K6" s="2">
-        <f>D6/B6*100</f>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="L6" s="2">
-        <f>E6/D6*100</f>
+        <f t="shared" si="4"/>
         <v>70.666666666666671</v>
       </c>
       <c r="M6" s="2">
-        <f>F6/D6*100</f>
+        <f t="shared" si="5"/>
         <v>29.333333333333332</v>
       </c>
       <c r="N6" s="2">
-        <f>G6/D6*100</f>
+        <f t="shared" si="6"/>
         <v>9.3333333333333339</v>
       </c>
       <c r="O6" s="2">
-        <f>H6/D6*100</f>
+        <f t="shared" si="7"/>
         <v>22.666666666666664</v>
       </c>
       <c r="P6" s="2">
-        <f>I6/D6*100</f>
+        <f t="shared" si="8"/>
         <v>2.666666666666667</v>
       </c>
     </row>
@@ -1379,14 +1379,14 @@
         <v>10</v>
       </c>
       <c r="D7" s="1">
-        <f>B7-C7</f>
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="E7" s="1">
         <v>32</v>
       </c>
       <c r="F7" s="1">
-        <f>D7-E7</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="G7" s="1">
@@ -1399,31 +1399,31 @@
         <v>2</v>
       </c>
       <c r="J7" s="2">
-        <f>C7/B7*100</f>
+        <f t="shared" si="2"/>
         <v>18.181818181818183</v>
       </c>
       <c r="K7" s="2">
-        <f>D7/B7*100</f>
+        <f t="shared" si="3"/>
         <v>81.818181818181827</v>
       </c>
       <c r="L7" s="2">
-        <f>E7/D7*100</f>
+        <f t="shared" si="4"/>
         <v>71.111111111111114</v>
       </c>
       <c r="M7" s="2">
-        <f>F7/D7*100</f>
+        <f t="shared" si="5"/>
         <v>28.888888888888886</v>
       </c>
       <c r="N7" s="2">
-        <f>G7/D7*100</f>
+        <f t="shared" si="6"/>
         <v>15.555555555555555</v>
       </c>
       <c r="O7" s="2">
-        <f>H7/D7*100</f>
+        <f t="shared" si="7"/>
         <v>11.111111111111111</v>
       </c>
       <c r="P7" s="2">
-        <f>I7/D7*100</f>
+        <f t="shared" si="8"/>
         <v>4.4444444444444446</v>
       </c>
     </row>
@@ -1438,14 +1438,14 @@
         <v>67</v>
       </c>
       <c r="D8" s="1">
-        <f>B8-C8</f>
+        <f t="shared" si="0"/>
         <v>487</v>
       </c>
       <c r="E8" s="6">
         <v>356</v>
       </c>
       <c r="F8" s="1">
-        <f>D8-E8</f>
+        <f t="shared" si="1"/>
         <v>131</v>
       </c>
       <c r="G8" s="6">
@@ -1458,31 +1458,31 @@
         <v>8</v>
       </c>
       <c r="J8" s="2">
-        <f>C8/B8*100</f>
+        <f t="shared" si="2"/>
         <v>12.093862815884476</v>
       </c>
       <c r="K8" s="2">
-        <f>D8/B8*100</f>
+        <f t="shared" si="3"/>
         <v>87.906137184115522</v>
       </c>
       <c r="L8" s="2">
-        <f>E8/D8*100</f>
+        <f t="shared" si="4"/>
         <v>73.100616016427097</v>
       </c>
       <c r="M8" s="2">
-        <f>F8/D8*100</f>
+        <f t="shared" si="5"/>
         <v>26.899383983572893</v>
       </c>
       <c r="N8" s="2">
-        <f>G8/D8*100</f>
+        <f t="shared" si="6"/>
         <v>16.2217659137577</v>
       </c>
       <c r="O8" s="2">
-        <f>H8/D8*100</f>
+        <f t="shared" si="7"/>
         <v>11.909650924024641</v>
       </c>
       <c r="P8" s="2">
-        <f>I8/D8*100</f>
+        <f t="shared" si="8"/>
         <v>1.6427104722792609</v>
       </c>
     </row>
@@ -1497,14 +1497,14 @@
         <v>17</v>
       </c>
       <c r="D9" s="1">
-        <f>B9-C9</f>
+        <f t="shared" si="0"/>
         <v>140</v>
       </c>
       <c r="E9" s="1">
         <v>103</v>
       </c>
       <c r="F9" s="1">
-        <f>D9-E9</f>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="G9" s="1">
@@ -1517,31 +1517,31 @@
         <v>5</v>
       </c>
       <c r="J9" s="2">
-        <f>C9/B9*100</f>
+        <f t="shared" si="2"/>
         <v>10.828025477707007</v>
       </c>
       <c r="K9" s="2">
-        <f>D9/B9*100</f>
+        <f t="shared" si="3"/>
         <v>89.171974522292999</v>
       </c>
       <c r="L9" s="2">
-        <f>E9/D9*100</f>
+        <f t="shared" si="4"/>
         <v>73.571428571428584</v>
       </c>
       <c r="M9" s="2">
-        <f>F9/D9*100</f>
+        <f t="shared" si="5"/>
         <v>26.428571428571431</v>
       </c>
       <c r="N9" s="2">
-        <f>G9/D9*100</f>
+        <f t="shared" si="6"/>
         <v>8.5714285714285712</v>
       </c>
       <c r="O9" s="2">
-        <f>H9/D9*100</f>
+        <f t="shared" si="7"/>
         <v>17.142857142857142</v>
       </c>
       <c r="P9" s="2">
-        <f>I9/D9*100</f>
+        <f t="shared" si="8"/>
         <v>3.5714285714285712</v>
       </c>
     </row>
@@ -1556,14 +1556,14 @@
         <v>3</v>
       </c>
       <c r="D10" s="1">
-        <f>B10-C10</f>
+        <f t="shared" si="0"/>
         <v>117</v>
       </c>
       <c r="E10" s="1">
         <v>90</v>
       </c>
       <c r="F10" s="1">
-        <f>D10-E10</f>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="G10" s="1">
@@ -1576,31 +1576,31 @@
         <v>1</v>
       </c>
       <c r="J10" s="2">
-        <f>C10/B10*100</f>
+        <f t="shared" si="2"/>
         <v>2.5</v>
       </c>
       <c r="K10" s="2">
-        <f>D10/B10*100</f>
+        <f t="shared" si="3"/>
         <v>97.5</v>
       </c>
       <c r="L10" s="2">
-        <f>E10/D10*100</f>
+        <f t="shared" si="4"/>
         <v>76.923076923076934</v>
       </c>
       <c r="M10" s="2">
-        <f>F10/D10*100</f>
+        <f t="shared" si="5"/>
         <v>23.076923076923077</v>
       </c>
       <c r="N10" s="2">
-        <f>G10/D10*100</f>
+        <f t="shared" si="6"/>
         <v>13.675213675213676</v>
       </c>
       <c r="O10" s="2">
-        <f>H10/D10*100</f>
+        <f t="shared" si="7"/>
         <v>10.256410256410255</v>
       </c>
       <c r="P10" s="2">
-        <f>I10/D10*100</f>
+        <f t="shared" si="8"/>
         <v>0.85470085470085477</v>
       </c>
     </row>
@@ -1615,14 +1615,14 @@
         <v>10</v>
       </c>
       <c r="D11" s="1">
-        <f>B11-C11</f>
+        <f t="shared" si="0"/>
         <v>91</v>
       </c>
       <c r="E11" s="1">
         <v>71</v>
       </c>
       <c r="F11" s="1">
-        <f>D11-E11</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="G11" s="1">
@@ -1635,31 +1635,31 @@
         <v>2</v>
       </c>
       <c r="J11" s="2">
-        <f>C11/B11*100</f>
+        <f t="shared" si="2"/>
         <v>9.9009900990099009</v>
       </c>
       <c r="K11" s="2">
-        <f>D11/B11*100</f>
+        <f t="shared" si="3"/>
         <v>90.099009900990097</v>
       </c>
       <c r="L11" s="2">
-        <f>E11/D11*100</f>
+        <f t="shared" si="4"/>
         <v>78.021978021978029</v>
       </c>
       <c r="M11" s="2">
-        <f>F11/D11*100</f>
+        <f t="shared" si="5"/>
         <v>21.978021978021978</v>
       </c>
       <c r="N11" s="2">
-        <f>G11/D11*100</f>
+        <f t="shared" si="6"/>
         <v>15.384615384615385</v>
       </c>
       <c r="O11" s="2">
-        <f>H11/D11*100</f>
+        <f t="shared" si="7"/>
         <v>6.593406593406594</v>
       </c>
       <c r="P11" s="2">
-        <f>I11/D11*100</f>
+        <f t="shared" si="8"/>
         <v>2.197802197802198</v>
       </c>
     </row>
@@ -1674,14 +1674,14 @@
         <v>17</v>
       </c>
       <c r="D12" s="1">
-        <f>B12-C12</f>
+        <f t="shared" si="0"/>
         <v>115</v>
       </c>
       <c r="E12" s="6">
         <v>91</v>
       </c>
       <c r="F12" s="1">
-        <f>D12-E12</f>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="G12" s="6">
@@ -1694,31 +1694,31 @@
         <v>2</v>
       </c>
       <c r="J12" s="2">
-        <f>C12/B12*100</f>
+        <f t="shared" si="2"/>
         <v>12.878787878787879</v>
       </c>
       <c r="K12" s="2">
-        <f>D12/B12*100</f>
+        <f t="shared" si="3"/>
         <v>87.121212121212125</v>
       </c>
       <c r="L12" s="2">
-        <f>E12/D12*100</f>
+        <f t="shared" si="4"/>
         <v>79.130434782608688</v>
       </c>
       <c r="M12" s="2">
-        <f>F12/D12*100</f>
+        <f t="shared" si="5"/>
         <v>20.869565217391305</v>
       </c>
       <c r="N12" s="2">
-        <f>G12/D12*100</f>
+        <f t="shared" si="6"/>
         <v>13.913043478260869</v>
       </c>
       <c r="O12" s="2">
-        <f>H12/D12*100</f>
+        <f t="shared" si="7"/>
         <v>5.2173913043478262</v>
       </c>
       <c r="P12" s="2">
-        <f>I12/D12*100</f>
+        <f t="shared" si="8"/>
         <v>1.7391304347826086</v>
       </c>
     </row>
@@ -1733,14 +1733,14 @@
         <v>25</v>
       </c>
       <c r="D13" s="1">
-        <f>B13-C13</f>
+        <f t="shared" si="0"/>
         <v>128</v>
       </c>
       <c r="E13" s="1">
         <v>103</v>
       </c>
       <c r="F13" s="1">
-        <f>D13-E13</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="G13" s="1">
@@ -1753,31 +1753,31 @@
         <v>1</v>
       </c>
       <c r="J13" s="2">
-        <f>C13/B13*100</f>
+        <f t="shared" si="2"/>
         <v>16.33986928104575</v>
       </c>
       <c r="K13" s="2">
-        <f>D13/B13*100</f>
+        <f t="shared" si="3"/>
         <v>83.66013071895425</v>
       </c>
       <c r="L13" s="2">
-        <f>E13/D13*100</f>
+        <f t="shared" si="4"/>
         <v>80.46875</v>
       </c>
       <c r="M13" s="2">
-        <f>F13/D13*100</f>
+        <f t="shared" si="5"/>
         <v>19.53125</v>
       </c>
       <c r="N13" s="2">
-        <f>G13/D13*100</f>
+        <f t="shared" si="6"/>
         <v>14.84375</v>
       </c>
       <c r="O13" s="2">
-        <f>H13/D13*100</f>
+        <f t="shared" si="7"/>
         <v>4.6875</v>
       </c>
       <c r="P13" s="2">
-        <f>I13/D13*100</f>
+        <f t="shared" si="8"/>
         <v>0.78125</v>
       </c>
     </row>
@@ -1792,14 +1792,14 @@
         <v>19</v>
       </c>
       <c r="D14" s="1">
-        <f>B14-C14</f>
+        <f t="shared" si="0"/>
         <v>114</v>
       </c>
       <c r="E14" s="1">
         <v>96</v>
       </c>
       <c r="F14" s="1">
-        <f>D14-E14</f>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="G14" s="1">
@@ -1812,31 +1812,31 @@
         <v>1</v>
       </c>
       <c r="J14" s="2">
-        <f>C14/B14*100</f>
+        <f t="shared" si="2"/>
         <v>14.285714285714285</v>
       </c>
       <c r="K14" s="2">
-        <f>D14/B14*100</f>
+        <f t="shared" si="3"/>
         <v>85.714285714285708</v>
       </c>
       <c r="L14" s="2">
-        <f>E14/D14*100</f>
+        <f t="shared" si="4"/>
         <v>84.210526315789465</v>
       </c>
       <c r="M14" s="2">
-        <f>F14/D14*100</f>
+        <f t="shared" si="5"/>
         <v>15.789473684210526</v>
       </c>
       <c r="N14" s="2">
-        <f>G14/D14*100</f>
+        <f t="shared" si="6"/>
         <v>13.157894736842104</v>
       </c>
       <c r="O14" s="2">
-        <f>H14/D14*100</f>
+        <f t="shared" si="7"/>
         <v>3.5087719298245612</v>
       </c>
       <c r="P14" s="2">
-        <f>I14/D14*100</f>
+        <f t="shared" si="8"/>
         <v>0.8771929824561403</v>
       </c>
     </row>
@@ -1853,7 +1853,7 @@
         <v>173</v>
       </c>
       <c r="D15" s="3">
-        <f t="shared" ref="D3:D15" si="0">B15-C15</f>
+        <f t="shared" ref="D15" si="9">B15-C15</f>
         <v>1423</v>
       </c>
       <c r="E15" s="3">
@@ -1861,7 +1861,7 @@
         <v>1068</v>
       </c>
       <c r="F15" s="3">
-        <f t="shared" ref="F3:F15" si="1">D15-E15</f>
+        <f t="shared" ref="F15" si="10">D15-E15</f>
         <v>355</v>
       </c>
       <c r="G15" s="3">
@@ -1874,35 +1874,35 @@
       </c>
       <c r="I15" s="3">
         <f>SUM(I5:I14)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J15" s="4">
-        <f t="shared" ref="J15" si="2">C15/B15*100</f>
+        <f t="shared" ref="J15" si="11">C15/B15*100</f>
         <v>10.839598997493734</v>
       </c>
       <c r="K15" s="4">
-        <f t="shared" ref="K15" si="3">D15/B15*100</f>
+        <f t="shared" ref="K15" si="12">D15/B15*100</f>
         <v>89.160401002506262</v>
       </c>
       <c r="L15" s="4">
-        <f t="shared" ref="L15" si="4">E15/D15*100</f>
+        <f t="shared" ref="L15" si="13">E15/D15*100</f>
         <v>75.052705551651442</v>
       </c>
       <c r="M15" s="4">
-        <f t="shared" ref="M15" si="5">F15/D15*100</f>
+        <f t="shared" ref="M15" si="14">F15/D15*100</f>
         <v>24.947294448348558</v>
       </c>
       <c r="N15" s="4">
-        <f t="shared" ref="N15" si="6">G15/D15*100</f>
+        <f t="shared" ref="N15" si="15">G15/D15*100</f>
         <v>14.406184118060436</v>
       </c>
       <c r="O15" s="4">
-        <f t="shared" ref="O15" si="7">H15/D15*100</f>
+        <f t="shared" ref="O15" si="16">H15/D15*100</f>
         <v>11.173576950105412</v>
       </c>
       <c r="P15" s="4">
-        <f t="shared" ref="P15" si="8">I15/D15*100</f>
-        <v>1.8271257905832747</v>
+        <f t="shared" ref="P15" si="17">I15/D15*100</f>
+        <v>1.8973998594518624</v>
       </c>
     </row>
   </sheetData>

--- a/data/zotero_data/bar-graph-classification-sorted.xlsx
+++ b/data/zotero_data/bar-graph-classification-sorted.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028 UC Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/zotero_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33AD38FA-7D4C-7D40-8983-4ABD161AE05B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D3C86A7-703A-4646-99B5-D5CEF218E7FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="500" windowWidth="37620" windowHeight="21100" xr2:uid="{DB5BE922-A247-3047-A984-8AB957C56D7E}"/>
   </bookViews>
@@ -1012,7 +1012,7 @@
   <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1272,13 +1272,13 @@
         <v>38</v>
       </c>
       <c r="G5" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H5" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I5" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J5" s="2">
         <f t="shared" si="2"/>
@@ -1298,15 +1298,15 @@
       </c>
       <c r="N5" s="2">
         <f t="shared" si="6"/>
-        <v>18.018018018018019</v>
+        <v>18.918918918918919</v>
       </c>
       <c r="O5" s="2">
         <f t="shared" si="7"/>
-        <v>18.918918918918919</v>
+        <v>19.81981981981982</v>
       </c>
       <c r="P5" s="2">
         <f t="shared" si="8"/>
-        <v>2.7027027027027026</v>
+        <v>3.6036036036036037</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
@@ -1845,64 +1845,64 @@
         <v>16</v>
       </c>
       <c r="B15" s="3">
-        <f>SUM(B5:B14)</f>
-        <v>1596</v>
+        <f>SUM(B2:B14)</f>
+        <v>2250</v>
       </c>
       <c r="C15" s="3">
-        <f>SUM(C5:C14)</f>
-        <v>173</v>
+        <f>SUM(C2:C14)</f>
+        <v>229</v>
       </c>
       <c r="D15" s="3">
         <f t="shared" ref="D15" si="9">B15-C15</f>
-        <v>1423</v>
+        <v>2021</v>
       </c>
       <c r="E15" s="3">
-        <f>SUM(E5:E14)</f>
-        <v>1068</v>
+        <f>SUM(E2:E14)</f>
+        <v>1432</v>
       </c>
       <c r="F15" s="3">
         <f t="shared" ref="F15" si="10">D15-E15</f>
-        <v>355</v>
+        <v>589</v>
       </c>
       <c r="G15" s="3">
-        <f>SUM(G5:G14)</f>
-        <v>205</v>
+        <f>SUM(G2:G14)</f>
+        <v>328</v>
       </c>
       <c r="H15" s="3">
-        <f>SUM(H5:H14)</f>
-        <v>159</v>
+        <f>SUM(H2:H14)</f>
+        <v>276</v>
       </c>
       <c r="I15" s="3">
-        <f>SUM(I5:I14)</f>
-        <v>27</v>
+        <f>SUM(I2:I14)</f>
+        <v>51</v>
       </c>
       <c r="J15" s="4">
         <f t="shared" ref="J15" si="11">C15/B15*100</f>
-        <v>10.839598997493734</v>
+        <v>10.177777777777777</v>
       </c>
       <c r="K15" s="4">
         <f t="shared" ref="K15" si="12">D15/B15*100</f>
-        <v>89.160401002506262</v>
+        <v>89.822222222222223</v>
       </c>
       <c r="L15" s="4">
         <f t="shared" ref="L15" si="13">E15/D15*100</f>
-        <v>75.052705551651442</v>
+        <v>70.85601187530925</v>
       </c>
       <c r="M15" s="4">
         <f t="shared" ref="M15" si="14">F15/D15*100</f>
-        <v>24.947294448348558</v>
+        <v>29.143988124690743</v>
       </c>
       <c r="N15" s="4">
         <f t="shared" ref="N15" si="15">G15/D15*100</f>
-        <v>14.406184118060436</v>
+        <v>16.229589312221673</v>
       </c>
       <c r="O15" s="4">
         <f t="shared" ref="O15" si="16">H15/D15*100</f>
-        <v>11.173576950105412</v>
+        <v>13.656605640771897</v>
       </c>
       <c r="P15" s="4">
         <f t="shared" ref="P15" si="17">I15/D15*100</f>
-        <v>1.8973998594518624</v>
+        <v>2.5235032162295892</v>
       </c>
     </row>
   </sheetData>

--- a/data/zotero_data/bar-graph-classification-sorted.xlsx
+++ b/data/zotero_data/bar-graph-classification-sorted.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028 UC Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/zotero_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D3C86A7-703A-4646-99B5-D5CEF218E7FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AF92D17-5C7E-FF4D-935D-99053943A57E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="500" windowWidth="37620" windowHeight="21100" xr2:uid="{DB5BE922-A247-3047-A984-8AB957C56D7E}"/>
   </bookViews>
@@ -1012,7 +1012,7 @@
   <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1154,13 +1154,13 @@
         <v>108</v>
       </c>
       <c r="G3" s="6">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H3" s="6">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I3" s="6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J3" s="2">
         <f t="shared" si="2"/>
@@ -1180,15 +1180,15 @@
       </c>
       <c r="N3" s="2">
         <f t="shared" si="6"/>
-        <v>17.667844522968199</v>
+        <v>16.607773851590103</v>
       </c>
       <c r="O3" s="2">
         <f t="shared" si="7"/>
-        <v>21.554770318021202</v>
+        <v>22.261484098939928</v>
       </c>
       <c r="P3" s="2">
         <f t="shared" si="8"/>
-        <v>2.4734982332155475</v>
+        <v>2.8268551236749118</v>
       </c>
     </row>
     <row r="4" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -1866,15 +1866,15 @@
       </c>
       <c r="G15" s="3">
         <f>SUM(G2:G14)</f>
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="H15" s="3">
         <f>SUM(H2:H14)</f>
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="I15" s="3">
         <f>SUM(I2:I14)</f>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J15" s="4">
         <f t="shared" ref="J15" si="11">C15/B15*100</f>
@@ -1894,15 +1894,15 @@
       </c>
       <c r="N15" s="4">
         <f t="shared" ref="N15" si="15">G15/D15*100</f>
-        <v>16.229589312221673</v>
+        <v>16.08114794656111</v>
       </c>
       <c r="O15" s="4">
         <f t="shared" ref="O15" si="16">H15/D15*100</f>
-        <v>13.656605640771897</v>
+        <v>13.75556655121227</v>
       </c>
       <c r="P15" s="4">
         <f t="shared" ref="P15" si="17">I15/D15*100</f>
-        <v>2.5235032162295892</v>
+        <v>2.5729836714497774</v>
       </c>
     </row>
   </sheetData>

--- a/data/zotero_data/bar-graph-classification-sorted.xlsx
+++ b/data/zotero_data/bar-graph-classification-sorted.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028 UC Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/zotero_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AF92D17-5C7E-FF4D-935D-99053943A57E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FD787C9-DE69-F24E-937F-51C11B093A3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="500" windowWidth="37620" windowHeight="21100" xr2:uid="{DB5BE922-A247-3047-A984-8AB957C56D7E}"/>
+    <workbookView xWindow="19600" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{DB5BE922-A247-3047-A984-8AB957C56D7E}"/>
   </bookViews>
   <sheets>
     <sheet name="bar-data" sheetId="1" r:id="rId1"/>
@@ -1011,8 +1011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1700032-B146-0744-B3FB-5A8DD20EC6D5}">
   <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="134" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1147,20 +1147,20 @@
         <v>283</v>
       </c>
       <c r="E3" s="6">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F3" s="1">
         <f t="shared" si="1"/>
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G3" s="6">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H3" s="6">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I3" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J3" s="2">
         <f t="shared" si="2"/>
@@ -1172,23 +1172,23 @@
       </c>
       <c r="L3" s="2">
         <f t="shared" si="4"/>
-        <v>61.837455830388691</v>
+        <v>62.544169611307424</v>
       </c>
       <c r="M3" s="2">
         <f t="shared" si="5"/>
-        <v>38.162544169611309</v>
+        <v>37.455830388692576</v>
       </c>
       <c r="N3" s="2">
         <f t="shared" si="6"/>
-        <v>16.607773851590103</v>
+        <v>16.96113074204947</v>
       </c>
       <c r="O3" s="2">
         <f t="shared" si="7"/>
-        <v>22.261484098939928</v>
+        <v>21.201413427561839</v>
       </c>
       <c r="P3" s="2">
         <f t="shared" si="8"/>
-        <v>2.8268551236749118</v>
+        <v>3.1802120141342751</v>
       </c>
     </row>
     <row r="4" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -1206,20 +1206,20 @@
         <v>224</v>
       </c>
       <c r="E4" s="1">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G4" s="1">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H4" s="1">
         <v>34</v>
       </c>
       <c r="I4" s="1">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J4" s="2">
         <f t="shared" si="2"/>
@@ -1231,15 +1231,15 @@
       </c>
       <c r="L4" s="2">
         <f t="shared" si="4"/>
-        <v>62.053571428571431</v>
+        <v>62.946428571428569</v>
       </c>
       <c r="M4" s="2">
         <f t="shared" si="5"/>
-        <v>37.946428571428569</v>
+        <v>37.053571428571431</v>
       </c>
       <c r="N4" s="2">
         <f t="shared" si="6"/>
-        <v>21.875</v>
+        <v>20.535714285714285</v>
       </c>
       <c r="O4" s="2">
         <f t="shared" si="7"/>
@@ -1247,7 +1247,7 @@
       </c>
       <c r="P4" s="2">
         <f t="shared" si="8"/>
-        <v>6.25</v>
+        <v>7.5892857142857135</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -1858,23 +1858,23 @@
       </c>
       <c r="E15" s="3">
         <f>SUM(E2:E14)</f>
-        <v>1432</v>
+        <v>1436</v>
       </c>
       <c r="F15" s="3">
         <f t="shared" ref="F15" si="10">D15-E15</f>
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="G15" s="3">
         <f>SUM(G2:G14)</f>
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="H15" s="3">
         <f>SUM(H2:H14)</f>
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="I15" s="3">
         <f>SUM(I2:I14)</f>
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="J15" s="4">
         <f t="shared" ref="J15" si="11">C15/B15*100</f>
@@ -1886,23 +1886,23 @@
       </c>
       <c r="L15" s="4">
         <f t="shared" ref="L15" si="13">E15/D15*100</f>
-        <v>70.85601187530925</v>
+        <v>71.053933696190015</v>
       </c>
       <c r="M15" s="4">
         <f t="shared" ref="M15" si="14">F15/D15*100</f>
-        <v>29.143988124690743</v>
+        <v>28.946066303809996</v>
       </c>
       <c r="N15" s="4">
         <f t="shared" ref="N15" si="15">G15/D15*100</f>
-        <v>16.08114794656111</v>
+        <v>15.982187036120731</v>
       </c>
       <c r="O15" s="4">
         <f t="shared" ref="O15" si="16">H15/D15*100</f>
-        <v>13.75556655121227</v>
+        <v>13.607125185551707</v>
       </c>
       <c r="P15" s="4">
         <f t="shared" ref="P15" si="17">I15/D15*100</f>
-        <v>2.5729836714497774</v>
+        <v>2.7709054923305292</v>
       </c>
     </row>
   </sheetData>

--- a/data/zotero_data/bar-graph-classification-sorted.xlsx
+++ b/data/zotero_data/bar-graph-classification-sorted.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028 UC Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/zotero_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FD787C9-DE69-F24E-937F-51C11B093A3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C70758F6-A5BC-7441-9718-195309787072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19600" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{DB5BE922-A247-3047-A984-8AB957C56D7E}"/>
+    <workbookView xWindow="780" yWindow="500" windowWidth="37620" windowHeight="21100" xr2:uid="{DB5BE922-A247-3047-A984-8AB957C56D7E}"/>
   </bookViews>
   <sheets>
     <sheet name="bar-data" sheetId="1" r:id="rId1"/>
@@ -1011,8 +1011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1700032-B146-0744-B3FB-5A8DD20EC6D5}">
   <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="134" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1432,17 +1432,17 @@
         <v>29</v>
       </c>
       <c r="B8" s="6">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C8" s="6">
         <v>67</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" si="0"/>
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E8" s="6">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" si="1"/>
@@ -1459,31 +1459,31 @@
       </c>
       <c r="J8" s="2">
         <f t="shared" si="2"/>
-        <v>12.093862815884476</v>
+        <v>12.115732368896925</v>
       </c>
       <c r="K8" s="2">
         <f t="shared" si="3"/>
-        <v>87.906137184115522</v>
+        <v>87.884267631103071</v>
       </c>
       <c r="L8" s="2">
         <f t="shared" si="4"/>
-        <v>73.100616016427097</v>
+        <v>73.045267489711932</v>
       </c>
       <c r="M8" s="2">
         <f t="shared" si="5"/>
-        <v>26.899383983572893</v>
+        <v>26.954732510288064</v>
       </c>
       <c r="N8" s="2">
         <f t="shared" si="6"/>
-        <v>16.2217659137577</v>
+        <v>16.255144032921812</v>
       </c>
       <c r="O8" s="2">
         <f t="shared" si="7"/>
-        <v>11.909650924024641</v>
+        <v>11.934156378600823</v>
       </c>
       <c r="P8" s="2">
         <f t="shared" si="8"/>
-        <v>1.6427104722792609</v>
+        <v>1.6460905349794239</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -1846,7 +1846,7 @@
       </c>
       <c r="B15" s="3">
         <f>SUM(B2:B14)</f>
-        <v>2250</v>
+        <v>2249</v>
       </c>
       <c r="C15" s="3">
         <f>SUM(C2:C14)</f>
@@ -1854,11 +1854,11 @@
       </c>
       <c r="D15" s="3">
         <f t="shared" ref="D15" si="9">B15-C15</f>
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="E15" s="3">
         <f>SUM(E2:E14)</f>
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="F15" s="3">
         <f t="shared" ref="F15" si="10">D15-E15</f>
@@ -1878,31 +1878,31 @@
       </c>
       <c r="J15" s="4">
         <f t="shared" ref="J15" si="11">C15/B15*100</f>
-        <v>10.177777777777777</v>
+        <v>10.182303245887061</v>
       </c>
       <c r="K15" s="4">
         <f t="shared" ref="K15" si="12">D15/B15*100</f>
-        <v>89.822222222222223</v>
+        <v>89.817696754112944</v>
       </c>
       <c r="L15" s="4">
         <f t="shared" ref="L15" si="13">E15/D15*100</f>
-        <v>71.053933696190015</v>
+        <v>71.039603960396036</v>
       </c>
       <c r="M15" s="4">
         <f t="shared" ref="M15" si="14">F15/D15*100</f>
-        <v>28.946066303809996</v>
+        <v>28.960396039603957</v>
       </c>
       <c r="N15" s="4">
         <f t="shared" ref="N15" si="15">G15/D15*100</f>
-        <v>15.982187036120731</v>
+        <v>15.990099009900991</v>
       </c>
       <c r="O15" s="4">
         <f t="shared" ref="O15" si="16">H15/D15*100</f>
-        <v>13.607125185551707</v>
+        <v>13.613861386138614</v>
       </c>
       <c r="P15" s="4">
         <f t="shared" ref="P15" si="17">I15/D15*100</f>
-        <v>2.7709054923305292</v>
+        <v>2.7722772277227725</v>
       </c>
     </row>
   </sheetData>

--- a/data/zotero_data/bar-graph-classification-sorted.xlsx
+++ b/data/zotero_data/bar-graph-classification-sorted.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028 UC Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/zotero_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C70758F6-A5BC-7441-9718-195309787072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11F0997B-CD4E-C64C-8E96-8F889F0D5A1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="500" windowWidth="37620" windowHeight="21100" xr2:uid="{DB5BE922-A247-3047-A984-8AB957C56D7E}"/>
   </bookViews>
@@ -1012,7 +1012,7 @@
   <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1383,14 +1383,14 @@
         <v>45</v>
       </c>
       <c r="E7" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G7" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H7" s="1">
         <v>5</v>
@@ -1408,15 +1408,15 @@
       </c>
       <c r="L7" s="2">
         <f t="shared" si="4"/>
-        <v>71.111111111111114</v>
+        <v>73.333333333333329</v>
       </c>
       <c r="M7" s="2">
         <f t="shared" si="5"/>
-        <v>28.888888888888886</v>
+        <v>26.666666666666668</v>
       </c>
       <c r="N7" s="2">
         <f t="shared" si="6"/>
-        <v>15.555555555555555</v>
+        <v>13.333333333333334</v>
       </c>
       <c r="O7" s="2">
         <f t="shared" si="7"/>
@@ -1858,15 +1858,15 @@
       </c>
       <c r="E15" s="3">
         <f>SUM(E2:E14)</f>
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="F15" s="3">
         <f t="shared" ref="F15" si="10">D15-E15</f>
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="G15" s="3">
         <f>SUM(G2:G14)</f>
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H15" s="3">
         <f>SUM(H2:H14)</f>
@@ -1886,15 +1886,15 @@
       </c>
       <c r="L15" s="4">
         <f t="shared" ref="L15" si="13">E15/D15*100</f>
-        <v>71.039603960396036</v>
+        <v>71.089108910891085</v>
       </c>
       <c r="M15" s="4">
         <f t="shared" ref="M15" si="14">F15/D15*100</f>
-        <v>28.960396039603957</v>
+        <v>28.910891089108908</v>
       </c>
       <c r="N15" s="4">
         <f t="shared" ref="N15" si="15">G15/D15*100</f>
-        <v>15.990099009900991</v>
+        <v>15.940594059405941</v>
       </c>
       <c r="O15" s="4">
         <f t="shared" ref="O15" si="16">H15/D15*100</f>

--- a/data/zotero_data/bar-graph-classification-sorted.xlsx
+++ b/data/zotero_data/bar-graph-classification-sorted.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028 UC Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/zotero_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11F0997B-CD4E-C64C-8E96-8F889F0D5A1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0444CC5F-2793-2348-A747-556609716622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="500" windowWidth="37620" windowHeight="21100" xr2:uid="{DB5BE922-A247-3047-A984-8AB957C56D7E}"/>
   </bookViews>
@@ -1012,7 +1012,7 @@
   <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1337,7 +1337,7 @@
         <v>17</v>
       </c>
       <c r="I6" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J6" s="2">
         <f t="shared" si="2"/>
@@ -1365,7 +1365,7 @@
       </c>
       <c r="P6" s="2">
         <f t="shared" si="8"/>
-        <v>2.666666666666667</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
@@ -1874,7 +1874,7 @@
       </c>
       <c r="I15" s="3">
         <f>SUM(I2:I14)</f>
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J15" s="4">
         <f t="shared" ref="J15" si="11">C15/B15*100</f>
@@ -1902,7 +1902,7 @@
       </c>
       <c r="P15" s="4">
         <f t="shared" ref="P15" si="17">I15/D15*100</f>
-        <v>2.7722772277227725</v>
+        <v>2.8217821782178221</v>
       </c>
     </row>
   </sheetData>

--- a/data/zotero_data/bar-graph-classification-sorted.xlsx
+++ b/data/zotero_data/bar-graph-classification-sorted.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028 UC Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/zotero_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0444CC5F-2793-2348-A747-556609716622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6107858-58B6-B345-8578-A69D0FC89F57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="500" windowWidth="37620" windowHeight="21100" xr2:uid="{DB5BE922-A247-3047-A984-8AB957C56D7E}"/>
   </bookViews>
@@ -1012,7 +1012,7 @@
   <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1567,10 +1567,10 @@
         <v>27</v>
       </c>
       <c r="G10" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H10" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I10" s="1">
         <v>1</v>
@@ -1593,11 +1593,11 @@
       </c>
       <c r="N10" s="2">
         <f t="shared" si="6"/>
-        <v>13.675213675213676</v>
+        <v>14.529914529914532</v>
       </c>
       <c r="O10" s="2">
         <f t="shared" si="7"/>
-        <v>10.256410256410255</v>
+        <v>9.4017094017094021</v>
       </c>
       <c r="P10" s="2">
         <f t="shared" si="8"/>
@@ -1866,11 +1866,11 @@
       </c>
       <c r="G15" s="3">
         <f>SUM(G2:G14)</f>
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H15" s="3">
         <f>SUM(H2:H14)</f>
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I15" s="3">
         <f>SUM(I2:I14)</f>
@@ -1894,11 +1894,11 @@
       </c>
       <c r="N15" s="4">
         <f t="shared" ref="N15" si="15">G15/D15*100</f>
-        <v>15.940594059405941</v>
+        <v>15.990099009900991</v>
       </c>
       <c r="O15" s="4">
         <f t="shared" ref="O15" si="16">H15/D15*100</f>
-        <v>13.613861386138614</v>
+        <v>13.564356435643566</v>
       </c>
       <c r="P15" s="4">
         <f t="shared" ref="P15" si="17">I15/D15*100</f>

--- a/data/zotero_data/bar-graph-classification-sorted.xlsx
+++ b/data/zotero_data/bar-graph-classification-sorted.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028 UC Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/zotero_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6107858-58B6-B345-8578-A69D0FC89F57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91692150-9FEC-F549-B0CA-AA52359BE8F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="500" windowWidth="37620" windowHeight="21100" xr2:uid="{DB5BE922-A247-3047-A984-8AB957C56D7E}"/>
   </bookViews>
@@ -1012,7 +1012,7 @@
   <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1570,7 +1570,7 @@
         <v>17</v>
       </c>
       <c r="H10" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I10" s="1">
         <v>1</v>
@@ -1597,7 +1597,7 @@
       </c>
       <c r="O10" s="2">
         <f t="shared" si="7"/>
-        <v>9.4017094017094021</v>
+        <v>10.256410256410255</v>
       </c>
       <c r="P10" s="2">
         <f t="shared" si="8"/>
@@ -1870,7 +1870,7 @@
       </c>
       <c r="H15" s="3">
         <f>SUM(H2:H14)</f>
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="I15" s="3">
         <f>SUM(I2:I14)</f>
@@ -1898,7 +1898,7 @@
       </c>
       <c r="O15" s="4">
         <f t="shared" ref="O15" si="16">H15/D15*100</f>
-        <v>13.564356435643566</v>
+        <v>13.613861386138614</v>
       </c>
       <c r="P15" s="4">
         <f t="shared" ref="P15" si="17">I15/D15*100</f>

--- a/data/zotero_data/bar-graph-classification-sorted.xlsx
+++ b/data/zotero_data/bar-graph-classification-sorted.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028 UC Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/zotero_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/zotero_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91692150-9FEC-F549-B0CA-AA52359BE8F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5640490D-AE01-7943-9295-8D12AC7F2135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="500" windowWidth="37620" windowHeight="21100" xr2:uid="{DB5BE922-A247-3047-A984-8AB957C56D7E}"/>
   </bookViews>
@@ -1012,7 +1012,7 @@
   <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1219,7 +1219,7 @@
         <v>34</v>
       </c>
       <c r="I4" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J4" s="2">
         <f t="shared" si="2"/>
@@ -1247,7 +1247,7 @@
       </c>
       <c r="P4" s="2">
         <f t="shared" si="8"/>
-        <v>7.5892857142857135</v>
+        <v>8.0357142857142865</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -1874,7 +1874,7 @@
       </c>
       <c r="I15" s="3">
         <f>SUM(I2:I14)</f>
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J15" s="4">
         <f t="shared" ref="J15" si="11">C15/B15*100</f>
@@ -1902,7 +1902,7 @@
       </c>
       <c r="P15" s="4">
         <f t="shared" ref="P15" si="17">I15/D15*100</f>
-        <v>2.8217821782178221</v>
+        <v>2.8712871287128716</v>
       </c>
     </row>
   </sheetData>

--- a/data/zotero_data/bar-graph-classification-sorted.xlsx
+++ b/data/zotero_data/bar-graph-classification-sorted.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/zotero_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5640490D-AE01-7943-9295-8D12AC7F2135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ED6503B-A8E8-6244-AD85-4B394C9CC9D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="500" windowWidth="37620" windowHeight="21100" xr2:uid="{DB5BE922-A247-3047-A984-8AB957C56D7E}"/>
   </bookViews>
@@ -1012,7 +1012,7 @@
   <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1213,10 +1213,10 @@
         <v>83</v>
       </c>
       <c r="G4" s="1">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H4" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I4" s="1">
         <v>18</v>
@@ -1239,11 +1239,11 @@
       </c>
       <c r="N4" s="2">
         <f t="shared" si="6"/>
-        <v>20.535714285714285</v>
+        <v>20.089285714285715</v>
       </c>
       <c r="O4" s="2">
         <f t="shared" si="7"/>
-        <v>15.178571428571427</v>
+        <v>15.625</v>
       </c>
       <c r="P4" s="2">
         <f t="shared" si="8"/>
@@ -1866,11 +1866,11 @@
       </c>
       <c r="G15" s="3">
         <f>SUM(G2:G14)</f>
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H15" s="3">
         <f>SUM(H2:H14)</f>
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="I15" s="3">
         <f>SUM(I2:I14)</f>
@@ -1894,11 +1894,11 @@
       </c>
       <c r="N15" s="4">
         <f t="shared" ref="N15" si="15">G15/D15*100</f>
-        <v>15.990099009900991</v>
+        <v>15.940594059405941</v>
       </c>
       <c r="O15" s="4">
         <f t="shared" ref="O15" si="16">H15/D15*100</f>
-        <v>13.613861386138614</v>
+        <v>13.663366336633665</v>
       </c>
       <c r="P15" s="4">
         <f t="shared" ref="P15" si="17">I15/D15*100</f>

--- a/data/zotero_data/bar-graph-classification-sorted.xlsx
+++ b/data/zotero_data/bar-graph-classification-sorted.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/zotero_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ED6503B-A8E8-6244-AD85-4B394C9CC9D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF8E211-0CB9-6646-B5CD-AB4667391870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="500" windowWidth="37620" windowHeight="21100" xr2:uid="{DB5BE922-A247-3047-A984-8AB957C56D7E}"/>
+    <workbookView xWindow="19600" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{DB5BE922-A247-3047-A984-8AB957C56D7E}"/>
   </bookViews>
   <sheets>
     <sheet name="bar-data" sheetId="1" r:id="rId1"/>
@@ -1012,7 +1012,7 @@
   <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1432,58 +1432,58 @@
         <v>29</v>
       </c>
       <c r="B8" s="6">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C8" s="6">
         <v>67</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" si="0"/>
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="E8" s="6">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" si="1"/>
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G8" s="6">
         <v>79</v>
       </c>
       <c r="H8" s="6">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I8" s="6">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J8" s="2">
         <f t="shared" si="2"/>
-        <v>12.115732368896925</v>
+        <v>12.093862815884476</v>
       </c>
       <c r="K8" s="2">
         <f t="shared" si="3"/>
-        <v>87.884267631103071</v>
+        <v>87.906137184115522</v>
       </c>
       <c r="L8" s="2">
         <f t="shared" si="4"/>
-        <v>73.045267489711932</v>
+        <v>73.30595482546201</v>
       </c>
       <c r="M8" s="2">
         <f t="shared" si="5"/>
-        <v>26.954732510288064</v>
+        <v>26.69404517453799</v>
       </c>
       <c r="N8" s="2">
         <f t="shared" si="6"/>
-        <v>16.255144032921812</v>
+        <v>16.2217659137577</v>
       </c>
       <c r="O8" s="2">
         <f t="shared" si="7"/>
-        <v>11.934156378600823</v>
+        <v>12.114989733059549</v>
       </c>
       <c r="P8" s="2">
         <f t="shared" si="8"/>
-        <v>1.6460905349794239</v>
+        <v>2.0533880903490758</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -1846,7 +1846,7 @@
       </c>
       <c r="B15" s="3">
         <f>SUM(B2:B14)</f>
-        <v>2249</v>
+        <v>2250</v>
       </c>
       <c r="C15" s="3">
         <f>SUM(C2:C14)</f>
@@ -1854,15 +1854,15 @@
       </c>
       <c r="D15" s="3">
         <f t="shared" ref="D15" si="9">B15-C15</f>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="E15" s="3">
         <f>SUM(E2:E14)</f>
-        <v>1436</v>
+        <v>1438</v>
       </c>
       <c r="F15" s="3">
         <f t="shared" ref="F15" si="10">D15-E15</f>
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="G15" s="3">
         <f>SUM(G2:G14)</f>
@@ -1870,39 +1870,39 @@
       </c>
       <c r="H15" s="3">
         <f>SUM(H2:H14)</f>
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="I15" s="3">
         <f>SUM(I2:I14)</f>
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J15" s="4">
         <f t="shared" ref="J15" si="11">C15/B15*100</f>
-        <v>10.182303245887061</v>
+        <v>10.177777777777777</v>
       </c>
       <c r="K15" s="4">
         <f t="shared" ref="K15" si="12">D15/B15*100</f>
-        <v>89.817696754112944</v>
+        <v>89.822222222222223</v>
       </c>
       <c r="L15" s="4">
         <f t="shared" ref="L15" si="13">E15/D15*100</f>
-        <v>71.089108910891085</v>
+        <v>71.152894606630383</v>
       </c>
       <c r="M15" s="4">
         <f t="shared" ref="M15" si="14">F15/D15*100</f>
-        <v>28.910891089108908</v>
+        <v>28.84710539336962</v>
       </c>
       <c r="N15" s="4">
         <f t="shared" ref="N15" si="15">G15/D15*100</f>
-        <v>15.940594059405941</v>
+        <v>15.932706580900543</v>
       </c>
       <c r="O15" s="4">
         <f t="shared" ref="O15" si="16">H15/D15*100</f>
-        <v>13.663366336633665</v>
+        <v>13.706086095992084</v>
       </c>
       <c r="P15" s="4">
         <f t="shared" ref="P15" si="17">I15/D15*100</f>
-        <v>2.8712871287128716</v>
+        <v>2.9688273132112815</v>
       </c>
     </row>
   </sheetData>

--- a/data/zotero_data/bar-graph-classification-sorted.xlsx
+++ b/data/zotero_data/bar-graph-classification-sorted.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/zotero_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF8E211-0CB9-6646-B5CD-AB4667391870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F01ACCFF-6C36-E54C-9ECD-D7AC603B8E8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19600" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{DB5BE922-A247-3047-A984-8AB957C56D7E}"/>
+    <workbookView xWindow="780" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{DB5BE922-A247-3047-A984-8AB957C56D7E}"/>
   </bookViews>
   <sheets>
     <sheet name="bar-data" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Journal</t>
   </si>
@@ -123,6 +123,9 @@
   </si>
   <si>
     <t>Nature †</t>
+  </si>
+  <si>
+    <t>Science †</t>
   </si>
 </sst>
 </file>
@@ -1009,10 +1012,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1700032-B146-0744-B3FB-5A8DD20EC6D5}">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1084,14 +1087,14 @@
         <v>18</v>
       </c>
       <c r="D2" s="1">
-        <f t="shared" ref="D2:D14" si="0">B2-C2</f>
+        <f t="shared" ref="D2:D15" si="0">B2-C2</f>
         <v>91</v>
       </c>
       <c r="E2" s="1">
         <v>50</v>
       </c>
       <c r="F2" s="1">
-        <f t="shared" ref="F2:F14" si="1">D2-E2</f>
+        <f t="shared" ref="F2:F15" si="1">D2-E2</f>
         <v>41</v>
       </c>
       <c r="G2" s="1">
@@ -1104,31 +1107,31 @@
         <v>2</v>
       </c>
       <c r="J2" s="2">
-        <f t="shared" ref="J2:J14" si="2">C2/B2*100</f>
+        <f t="shared" ref="J2:J15" si="2">C2/B2*100</f>
         <v>16.513761467889911</v>
       </c>
       <c r="K2" s="2">
-        <f t="shared" ref="K2:K14" si="3">D2/B2*100</f>
+        <f t="shared" ref="K2:K15" si="3">D2/B2*100</f>
         <v>83.486238532110093</v>
       </c>
       <c r="L2" s="2">
-        <f t="shared" ref="L2:L14" si="4">E2/D2*100</f>
+        <f t="shared" ref="L2:L15" si="4">E2/D2*100</f>
         <v>54.945054945054949</v>
       </c>
       <c r="M2" s="2">
-        <f t="shared" ref="M2:M14" si="5">F2/D2*100</f>
+        <f t="shared" ref="M2:M15" si="5">F2/D2*100</f>
         <v>45.054945054945058</v>
       </c>
       <c r="N2" s="2">
-        <f t="shared" ref="N2:N14" si="6">G2/D2*100</f>
+        <f t="shared" ref="N2:N15" si="6">G2/D2*100</f>
         <v>25.274725274725274</v>
       </c>
       <c r="O2" s="2">
-        <f t="shared" ref="O2:O14" si="7">H2/D2*100</f>
+        <f t="shared" ref="O2:O15" si="7">H2/D2*100</f>
         <v>23.076923076923077</v>
       </c>
       <c r="P2" s="2">
-        <f t="shared" ref="P2:P14" si="8">I2/D2*100</f>
+        <f t="shared" ref="P2:P15" si="8">I2/D2*100</f>
         <v>2.197802197802198</v>
       </c>
     </row>
@@ -1783,131 +1786,190 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B14" s="1">
-        <v>133</v>
+        <v>313</v>
       </c>
       <c r="C14" s="1">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="D14" s="1">
         <f t="shared" si="0"/>
-        <v>114</v>
+        <v>239</v>
       </c>
       <c r="E14" s="1">
-        <v>96</v>
+        <v>196</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="G14" s="1">
+        <v>22</v>
+      </c>
+      <c r="H14" s="1">
         <v>18</v>
       </c>
-      <c r="G14" s="1">
-        <v>15</v>
-      </c>
-      <c r="H14" s="1">
-        <v>4</v>
-      </c>
       <c r="I14" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J14" s="2">
         <f t="shared" si="2"/>
-        <v>14.285714285714285</v>
+        <v>23.642172523961662</v>
       </c>
       <c r="K14" s="2">
         <f t="shared" si="3"/>
-        <v>85.714285714285708</v>
+        <v>76.357827476038338</v>
       </c>
       <c r="L14" s="2">
         <f t="shared" si="4"/>
-        <v>84.210526315789465</v>
+        <v>82.008368200836827</v>
       </c>
       <c r="M14" s="2">
         <f t="shared" si="5"/>
-        <v>15.789473684210526</v>
+        <v>17.99163179916318</v>
       </c>
       <c r="N14" s="2">
         <f t="shared" si="6"/>
-        <v>13.157894736842104</v>
+        <v>9.2050209205020916</v>
       </c>
       <c r="O14" s="2">
         <f t="shared" si="7"/>
-        <v>3.5087719298245612</v>
+        <v>7.5313807531380759</v>
       </c>
       <c r="P14" s="2">
         <f t="shared" si="8"/>
+        <v>2.9288702928870292</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="1">
+        <v>133</v>
+      </c>
+      <c r="C15" s="1">
+        <v>19</v>
+      </c>
+      <c r="D15" s="1">
+        <f t="shared" si="0"/>
+        <v>114</v>
+      </c>
+      <c r="E15" s="1">
+        <v>96</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="G15" s="1">
+        <v>15</v>
+      </c>
+      <c r="H15" s="1">
+        <v>4</v>
+      </c>
+      <c r="I15" s="1">
+        <v>1</v>
+      </c>
+      <c r="J15" s="2">
+        <f t="shared" si="2"/>
+        <v>14.285714285714285</v>
+      </c>
+      <c r="K15" s="2">
+        <f t="shared" si="3"/>
+        <v>85.714285714285708</v>
+      </c>
+      <c r="L15" s="2">
+        <f t="shared" si="4"/>
+        <v>84.210526315789465</v>
+      </c>
+      <c r="M15" s="2">
+        <f t="shared" si="5"/>
+        <v>15.789473684210526</v>
+      </c>
+      <c r="N15" s="2">
+        <f t="shared" si="6"/>
+        <v>13.157894736842104</v>
+      </c>
+      <c r="O15" s="2">
+        <f t="shared" si="7"/>
+        <v>3.5087719298245612</v>
+      </c>
+      <c r="P15" s="2">
+        <f t="shared" si="8"/>
         <v>0.8771929824561403</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
+    <row r="16" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="3">
-        <f>SUM(B2:B14)</f>
-        <v>2250</v>
-      </c>
-      <c r="C15" s="3">
-        <f>SUM(C2:C14)</f>
-        <v>229</v>
-      </c>
-      <c r="D15" s="3">
-        <f t="shared" ref="D15" si="9">B15-C15</f>
-        <v>2021</v>
-      </c>
-      <c r="E15" s="3">
-        <f>SUM(E2:E14)</f>
-        <v>1438</v>
-      </c>
-      <c r="F15" s="3">
-        <f t="shared" ref="F15" si="10">D15-E15</f>
-        <v>583</v>
-      </c>
-      <c r="G15" s="3">
-        <f>SUM(G2:G14)</f>
-        <v>322</v>
-      </c>
-      <c r="H15" s="3">
-        <f>SUM(H2:H14)</f>
-        <v>277</v>
-      </c>
-      <c r="I15" s="3">
-        <f>SUM(I2:I14)</f>
-        <v>60</v>
-      </c>
-      <c r="J15" s="4">
-        <f t="shared" ref="J15" si="11">C15/B15*100</f>
-        <v>10.177777777777777</v>
-      </c>
-      <c r="K15" s="4">
-        <f t="shared" ref="K15" si="12">D15/B15*100</f>
-        <v>89.822222222222223</v>
-      </c>
-      <c r="L15" s="4">
-        <f t="shared" ref="L15" si="13">E15/D15*100</f>
-        <v>71.152894606630383</v>
-      </c>
-      <c r="M15" s="4">
-        <f t="shared" ref="M15" si="14">F15/D15*100</f>
-        <v>28.84710539336962</v>
-      </c>
-      <c r="N15" s="4">
-        <f t="shared" ref="N15" si="15">G15/D15*100</f>
-        <v>15.932706580900543</v>
-      </c>
-      <c r="O15" s="4">
-        <f t="shared" ref="O15" si="16">H15/D15*100</f>
-        <v>13.706086095992084</v>
-      </c>
-      <c r="P15" s="4">
-        <f t="shared" ref="P15" si="17">I15/D15*100</f>
-        <v>2.9688273132112815</v>
+      <c r="B16" s="3">
+        <f>SUM(B2:B15)</f>
+        <v>2563</v>
+      </c>
+      <c r="C16" s="3">
+        <f>SUM(C2:C15)</f>
+        <v>303</v>
+      </c>
+      <c r="D16" s="3">
+        <f t="shared" ref="D16" si="9">B16-C16</f>
+        <v>2260</v>
+      </c>
+      <c r="E16" s="3">
+        <f>SUM(E2:E15)</f>
+        <v>1634</v>
+      </c>
+      <c r="F16" s="3">
+        <f t="shared" ref="F16" si="10">D16-E16</f>
+        <v>626</v>
+      </c>
+      <c r="G16" s="3">
+        <f>SUM(G2:G15)</f>
+        <v>344</v>
+      </c>
+      <c r="H16" s="3">
+        <f>SUM(H2:H15)</f>
+        <v>295</v>
+      </c>
+      <c r="I16" s="3">
+        <f>SUM(I2:I15)</f>
+        <v>67</v>
+      </c>
+      <c r="J16" s="4">
+        <f t="shared" ref="J16" si="11">C16/B16*100</f>
+        <v>11.822083495903238</v>
+      </c>
+      <c r="K16" s="4">
+        <f t="shared" ref="K16" si="12">D16/B16*100</f>
+        <v>88.177916504096771</v>
+      </c>
+      <c r="L16" s="4">
+        <f t="shared" ref="L16" si="13">E16/D16*100</f>
+        <v>72.30088495575221</v>
+      </c>
+      <c r="M16" s="4">
+        <f t="shared" ref="M16" si="14">F16/D16*100</f>
+        <v>27.699115044247787</v>
+      </c>
+      <c r="N16" s="4">
+        <f t="shared" ref="N16" si="15">G16/D16*100</f>
+        <v>15.221238938053098</v>
+      </c>
+      <c r="O16" s="4">
+        <f t="shared" ref="O16" si="16">H16/D16*100</f>
+        <v>13.053097345132745</v>
+      </c>
+      <c r="P16" s="4">
+        <f t="shared" ref="P16" si="17">I16/D16*100</f>
+        <v>2.9646017699115044</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P14">
-    <sortCondition descending="1" ref="M2:M14"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P15">
+    <sortCondition descending="1" ref="M2:M15"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/data/zotero_data/bar-graph-classification-sorted.xlsx
+++ b/data/zotero_data/bar-graph-classification-sorted.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/zotero_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F01ACCFF-6C36-E54C-9ECD-D7AC603B8E8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E322CC8A-A1B9-2E47-94AB-2B01FB95CAF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{DB5BE922-A247-3047-A984-8AB957C56D7E}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Journal</t>
   </si>
@@ -126,6 +126,9 @@
   </si>
   <si>
     <t>Science †</t>
+  </si>
+  <si>
+    <t>ACS Nano</t>
   </si>
 </sst>
 </file>
@@ -1012,10 +1015,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1700032-B146-0744-B3FB-5A8DD20EC6D5}">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1087,14 +1090,14 @@
         <v>18</v>
       </c>
       <c r="D2" s="1">
-        <f t="shared" ref="D2:D15" si="0">B2-C2</f>
+        <f t="shared" ref="D2:D16" si="0">B2-C2</f>
         <v>91</v>
       </c>
       <c r="E2" s="1">
         <v>50</v>
       </c>
       <c r="F2" s="1">
-        <f t="shared" ref="F2:F15" si="1">D2-E2</f>
+        <f t="shared" ref="F2:F16" si="1">D2-E2</f>
         <v>41</v>
       </c>
       <c r="G2" s="1">
@@ -1107,31 +1110,31 @@
         <v>2</v>
       </c>
       <c r="J2" s="2">
-        <f t="shared" ref="J2:J15" si="2">C2/B2*100</f>
+        <f t="shared" ref="J2:J16" si="2">C2/B2*100</f>
         <v>16.513761467889911</v>
       </c>
       <c r="K2" s="2">
-        <f t="shared" ref="K2:K15" si="3">D2/B2*100</f>
+        <f t="shared" ref="K2:K16" si="3">D2/B2*100</f>
         <v>83.486238532110093</v>
       </c>
       <c r="L2" s="2">
-        <f t="shared" ref="L2:L15" si="4">E2/D2*100</f>
+        <f t="shared" ref="L2:L16" si="4">E2/D2*100</f>
         <v>54.945054945054949</v>
       </c>
       <c r="M2" s="2">
-        <f t="shared" ref="M2:M15" si="5">F2/D2*100</f>
+        <f t="shared" ref="M2:M16" si="5">F2/D2*100</f>
         <v>45.054945054945058</v>
       </c>
       <c r="N2" s="2">
-        <f t="shared" ref="N2:N15" si="6">G2/D2*100</f>
+        <f t="shared" ref="N2:N16" si="6">G2/D2*100</f>
         <v>25.274725274725274</v>
       </c>
       <c r="O2" s="2">
-        <f t="shared" ref="O2:O15" si="7">H2/D2*100</f>
+        <f t="shared" ref="O2:O16" si="7">H2/D2*100</f>
         <v>23.076923076923077</v>
       </c>
       <c r="P2" s="2">
-        <f t="shared" ref="P2:P15" si="8">I2/D2*100</f>
+        <f t="shared" ref="P2:P16" si="8">I2/D2*100</f>
         <v>2.197802197802198</v>
       </c>
     </row>
@@ -1314,662 +1317,721 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B6" s="1">
-        <v>75</v>
+        <v>643</v>
       </c>
       <c r="C6" s="1">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>559</v>
       </c>
       <c r="E6" s="1">
-        <v>53</v>
+        <v>372</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>187</v>
       </c>
       <c r="G6" s="1">
-        <v>7</v>
+        <v>134</v>
       </c>
       <c r="H6" s="1">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="I6" s="1">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="J6" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>13.063763608087092</v>
       </c>
       <c r="K6" s="2">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>86.936236391912914</v>
       </c>
       <c r="L6" s="2">
         <f t="shared" si="4"/>
-        <v>70.666666666666671</v>
+        <v>66.547406082289811</v>
       </c>
       <c r="M6" s="2">
         <f t="shared" si="5"/>
-        <v>29.333333333333332</v>
+        <v>33.452593917710196</v>
       </c>
       <c r="N6" s="2">
         <f t="shared" si="6"/>
-        <v>9.3333333333333339</v>
+        <v>23.971377459749551</v>
       </c>
       <c r="O6" s="2">
         <f t="shared" si="7"/>
-        <v>22.666666666666664</v>
+        <v>6.9767441860465116</v>
       </c>
       <c r="P6" s="2">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>5.1878354203935597</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B7" s="1">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="C7" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="E7" s="1">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G7" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H7" s="1">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="I7" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J7" s="2">
         <f t="shared" si="2"/>
-        <v>18.181818181818183</v>
+        <v>0</v>
       </c>
       <c r="K7" s="2">
         <f t="shared" si="3"/>
-        <v>81.818181818181827</v>
+        <v>100</v>
       </c>
       <c r="L7" s="2">
         <f t="shared" si="4"/>
-        <v>73.333333333333329</v>
+        <v>70.666666666666671</v>
       </c>
       <c r="M7" s="2">
         <f t="shared" si="5"/>
-        <v>26.666666666666668</v>
+        <v>29.333333333333332</v>
       </c>
       <c r="N7" s="2">
         <f t="shared" si="6"/>
-        <v>13.333333333333334</v>
+        <v>9.3333333333333339</v>
       </c>
       <c r="O7" s="2">
         <f t="shared" si="7"/>
-        <v>11.111111111111111</v>
+        <v>22.666666666666664</v>
       </c>
       <c r="P7" s="2">
         <f t="shared" si="8"/>
-        <v>4.4444444444444446</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="6">
-        <v>554</v>
-      </c>
-      <c r="C8" s="6">
-        <v>67</v>
+        <v>28</v>
+      </c>
+      <c r="B8" s="1">
+        <v>55</v>
+      </c>
+      <c r="C8" s="1">
+        <v>10</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" si="0"/>
-        <v>487</v>
-      </c>
-      <c r="E8" s="6">
-        <v>357</v>
+        <v>45</v>
+      </c>
+      <c r="E8" s="1">
+        <v>33</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" si="1"/>
-        <v>130</v>
-      </c>
-      <c r="G8" s="6">
-        <v>79</v>
-      </c>
-      <c r="H8" s="6">
-        <v>59</v>
-      </c>
-      <c r="I8" s="6">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="G8" s="1">
+        <v>6</v>
+      </c>
+      <c r="H8" s="1">
+        <v>5</v>
+      </c>
+      <c r="I8" s="1">
+        <v>2</v>
       </c>
       <c r="J8" s="2">
         <f t="shared" si="2"/>
-        <v>12.093862815884476</v>
+        <v>18.181818181818183</v>
       </c>
       <c r="K8" s="2">
         <f t="shared" si="3"/>
-        <v>87.906137184115522</v>
+        <v>81.818181818181827</v>
       </c>
       <c r="L8" s="2">
         <f t="shared" si="4"/>
-        <v>73.30595482546201</v>
+        <v>73.333333333333329</v>
       </c>
       <c r="M8" s="2">
         <f t="shared" si="5"/>
-        <v>26.69404517453799</v>
+        <v>26.666666666666668</v>
       </c>
       <c r="N8" s="2">
         <f t="shared" si="6"/>
-        <v>16.2217659137577</v>
+        <v>13.333333333333334</v>
       </c>
       <c r="O8" s="2">
         <f t="shared" si="7"/>
-        <v>12.114989733059549</v>
+        <v>11.111111111111111</v>
       </c>
       <c r="P8" s="2">
         <f t="shared" si="8"/>
-        <v>2.0533880903490758</v>
+        <v>4.4444444444444446</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="1">
-        <v>157</v>
-      </c>
-      <c r="C9" s="1">
-        <v>17</v>
+        <v>29</v>
+      </c>
+      <c r="B9" s="6">
+        <v>554</v>
+      </c>
+      <c r="C9" s="6">
+        <v>67</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" si="0"/>
-        <v>140</v>
-      </c>
-      <c r="E9" s="1">
-        <v>103</v>
+        <v>487</v>
+      </c>
+      <c r="E9" s="6">
+        <v>357</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" si="1"/>
-        <v>37</v>
-      </c>
-      <c r="G9" s="1">
-        <v>12</v>
-      </c>
-      <c r="H9" s="1">
-        <v>24</v>
-      </c>
-      <c r="I9" s="1">
-        <v>5</v>
+        <v>130</v>
+      </c>
+      <c r="G9" s="6">
+        <v>79</v>
+      </c>
+      <c r="H9" s="6">
+        <v>59</v>
+      </c>
+      <c r="I9" s="6">
+        <v>10</v>
       </c>
       <c r="J9" s="2">
         <f t="shared" si="2"/>
-        <v>10.828025477707007</v>
+        <v>12.093862815884476</v>
       </c>
       <c r="K9" s="2">
         <f t="shared" si="3"/>
-        <v>89.171974522292999</v>
+        <v>87.906137184115522</v>
       </c>
       <c r="L9" s="2">
         <f t="shared" si="4"/>
-        <v>73.571428571428584</v>
+        <v>73.30595482546201</v>
       </c>
       <c r="M9" s="2">
         <f t="shared" si="5"/>
-        <v>26.428571428571431</v>
+        <v>26.69404517453799</v>
       </c>
       <c r="N9" s="2">
         <f t="shared" si="6"/>
-        <v>8.5714285714285712</v>
+        <v>16.2217659137577</v>
       </c>
       <c r="O9" s="2">
         <f t="shared" si="7"/>
-        <v>17.142857142857142</v>
+        <v>12.114989733059549</v>
       </c>
       <c r="P9" s="2">
         <f t="shared" si="8"/>
-        <v>3.5714285714285712</v>
+        <v>2.0533880903490758</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B10" s="1">
-        <v>120</v>
+        <v>157</v>
       </c>
       <c r="C10" s="1">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" si="0"/>
-        <v>117</v>
+        <v>140</v>
       </c>
       <c r="E10" s="1">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="F10" s="1">
         <f t="shared" si="1"/>
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="G10" s="1">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H10" s="1">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I10" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J10" s="2">
         <f t="shared" si="2"/>
-        <v>2.5</v>
+        <v>10.828025477707007</v>
       </c>
       <c r="K10" s="2">
         <f t="shared" si="3"/>
-        <v>97.5</v>
+        <v>89.171974522292999</v>
       </c>
       <c r="L10" s="2">
         <f t="shared" si="4"/>
-        <v>76.923076923076934</v>
+        <v>73.571428571428584</v>
       </c>
       <c r="M10" s="2">
         <f t="shared" si="5"/>
-        <v>23.076923076923077</v>
+        <v>26.428571428571431</v>
       </c>
       <c r="N10" s="2">
         <f t="shared" si="6"/>
-        <v>14.529914529914532</v>
+        <v>8.5714285714285712</v>
       </c>
       <c r="O10" s="2">
         <f t="shared" si="7"/>
-        <v>10.256410256410255</v>
+        <v>17.142857142857142</v>
       </c>
       <c r="P10" s="2">
         <f t="shared" si="8"/>
-        <v>0.85470085470085477</v>
+        <v>3.5714285714285712</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B11" s="1">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="C11" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="0"/>
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="E11" s="1">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G11" s="1">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H11" s="1">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="I11" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J11" s="2">
         <f t="shared" si="2"/>
-        <v>9.9009900990099009</v>
+        <v>2.5</v>
       </c>
       <c r="K11" s="2">
         <f t="shared" si="3"/>
-        <v>90.099009900990097</v>
+        <v>97.5</v>
       </c>
       <c r="L11" s="2">
         <f t="shared" si="4"/>
-        <v>78.021978021978029</v>
+        <v>76.923076923076934</v>
       </c>
       <c r="M11" s="2">
         <f t="shared" si="5"/>
-        <v>21.978021978021978</v>
+        <v>23.076923076923077</v>
       </c>
       <c r="N11" s="2">
         <f t="shared" si="6"/>
-        <v>15.384615384615385</v>
+        <v>14.529914529914532</v>
       </c>
       <c r="O11" s="2">
         <f t="shared" si="7"/>
-        <v>6.593406593406594</v>
+        <v>10.256410256410255</v>
       </c>
       <c r="P11" s="2">
         <f t="shared" si="8"/>
-        <v>2.197802197802198</v>
+        <v>0.85470085470085477</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="6">
-        <v>132</v>
-      </c>
-      <c r="C12" s="6">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="B12" s="1">
+        <v>101</v>
+      </c>
+      <c r="C12" s="1">
+        <v>10</v>
       </c>
       <c r="D12" s="1">
         <f t="shared" si="0"/>
-        <v>115</v>
-      </c>
-      <c r="E12" s="6">
         <v>91</v>
+      </c>
+      <c r="E12" s="1">
+        <v>71</v>
       </c>
       <c r="F12" s="1">
         <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="G12" s="6">
-        <v>16</v>
-      </c>
-      <c r="H12" s="6">
+        <v>20</v>
+      </c>
+      <c r="G12" s="1">
+        <v>14</v>
+      </c>
+      <c r="H12" s="1">
         <v>6</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="1">
         <v>2</v>
       </c>
       <c r="J12" s="2">
         <f t="shared" si="2"/>
-        <v>12.878787878787879</v>
+        <v>9.9009900990099009</v>
       </c>
       <c r="K12" s="2">
         <f t="shared" si="3"/>
-        <v>87.121212121212125</v>
+        <v>90.099009900990097</v>
       </c>
       <c r="L12" s="2">
         <f t="shared" si="4"/>
-        <v>79.130434782608688</v>
+        <v>78.021978021978029</v>
       </c>
       <c r="M12" s="2">
         <f t="shared" si="5"/>
-        <v>20.869565217391305</v>
+        <v>21.978021978021978</v>
       </c>
       <c r="N12" s="2">
         <f t="shared" si="6"/>
-        <v>13.913043478260869</v>
+        <v>15.384615384615385</v>
       </c>
       <c r="O12" s="2">
         <f t="shared" si="7"/>
-        <v>5.2173913043478262</v>
+        <v>6.593406593406594</v>
       </c>
       <c r="P12" s="2">
         <f t="shared" si="8"/>
-        <v>1.7391304347826086</v>
+        <v>2.197802197802198</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="1">
-        <v>153</v>
-      </c>
-      <c r="C13" s="1">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="B13" s="6">
+        <v>132</v>
+      </c>
+      <c r="C13" s="6">
+        <v>17</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" si="0"/>
-        <v>128</v>
-      </c>
-      <c r="E13" s="1">
-        <v>103</v>
+        <v>115</v>
+      </c>
+      <c r="E13" s="6">
+        <v>91</v>
       </c>
       <c r="F13" s="1">
         <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="G13" s="1">
-        <v>19</v>
-      </c>
-      <c r="H13" s="1">
+        <v>24</v>
+      </c>
+      <c r="G13" s="6">
+        <v>16</v>
+      </c>
+      <c r="H13" s="6">
         <v>6</v>
       </c>
-      <c r="I13" s="1">
-        <v>1</v>
+      <c r="I13" s="6">
+        <v>2</v>
       </c>
       <c r="J13" s="2">
         <f t="shared" si="2"/>
-        <v>16.33986928104575</v>
+        <v>12.878787878787879</v>
       </c>
       <c r="K13" s="2">
         <f t="shared" si="3"/>
-        <v>83.66013071895425</v>
+        <v>87.121212121212125</v>
       </c>
       <c r="L13" s="2">
         <f t="shared" si="4"/>
-        <v>80.46875</v>
+        <v>79.130434782608688</v>
       </c>
       <c r="M13" s="2">
         <f t="shared" si="5"/>
-        <v>19.53125</v>
+        <v>20.869565217391305</v>
       </c>
       <c r="N13" s="2">
         <f t="shared" si="6"/>
-        <v>14.84375</v>
+        <v>13.913043478260869</v>
       </c>
       <c r="O13" s="2">
         <f t="shared" si="7"/>
-        <v>4.6875</v>
+        <v>5.2173913043478262</v>
       </c>
       <c r="P13" s="2">
         <f t="shared" si="8"/>
-        <v>0.78125</v>
+        <v>1.7391304347826086</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B14" s="1">
-        <v>313</v>
+        <v>153</v>
       </c>
       <c r="C14" s="1">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="D14" s="1">
         <f t="shared" si="0"/>
-        <v>239</v>
+        <v>128</v>
       </c>
       <c r="E14" s="1">
-        <v>196</v>
+        <v>103</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" si="1"/>
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="G14" s="1">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H14" s="1">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="I14" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J14" s="2">
         <f t="shared" si="2"/>
-        <v>23.642172523961662</v>
+        <v>16.33986928104575</v>
       </c>
       <c r="K14" s="2">
         <f t="shared" si="3"/>
-        <v>76.357827476038338</v>
+        <v>83.66013071895425</v>
       </c>
       <c r="L14" s="2">
         <f t="shared" si="4"/>
-        <v>82.008368200836827</v>
+        <v>80.46875</v>
       </c>
       <c r="M14" s="2">
         <f t="shared" si="5"/>
-        <v>17.99163179916318</v>
+        <v>19.53125</v>
       </c>
       <c r="N14" s="2">
         <f t="shared" si="6"/>
-        <v>9.2050209205020916</v>
+        <v>14.84375</v>
       </c>
       <c r="O14" s="2">
         <f t="shared" si="7"/>
-        <v>7.5313807531380759</v>
+        <v>4.6875</v>
       </c>
       <c r="P14" s="2">
         <f t="shared" si="8"/>
-        <v>2.9288702928870292</v>
+        <v>0.78125</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B15" s="1">
-        <v>133</v>
+        <v>313</v>
       </c>
       <c r="C15" s="1">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="D15" s="1">
         <f t="shared" si="0"/>
-        <v>114</v>
+        <v>239</v>
       </c>
       <c r="E15" s="1">
-        <v>96</v>
+        <v>196</v>
       </c>
       <c r="F15" s="1">
         <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="G15" s="1">
+        <v>22</v>
+      </c>
+      <c r="H15" s="1">
         <v>18</v>
       </c>
-      <c r="G15" s="1">
-        <v>15</v>
-      </c>
-      <c r="H15" s="1">
-        <v>4</v>
-      </c>
       <c r="I15" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J15" s="2">
         <f t="shared" si="2"/>
-        <v>14.285714285714285</v>
+        <v>23.642172523961662</v>
       </c>
       <c r="K15" s="2">
         <f t="shared" si="3"/>
-        <v>85.714285714285708</v>
+        <v>76.357827476038338</v>
       </c>
       <c r="L15" s="2">
         <f t="shared" si="4"/>
-        <v>84.210526315789465</v>
+        <v>82.008368200836827</v>
       </c>
       <c r="M15" s="2">
         <f t="shared" si="5"/>
-        <v>15.789473684210526</v>
+        <v>17.99163179916318</v>
       </c>
       <c r="N15" s="2">
         <f t="shared" si="6"/>
-        <v>13.157894736842104</v>
+        <v>9.2050209205020916</v>
       </c>
       <c r="O15" s="2">
         <f t="shared" si="7"/>
-        <v>3.5087719298245612</v>
+        <v>7.5313807531380759</v>
       </c>
       <c r="P15" s="2">
         <f t="shared" si="8"/>
+        <v>2.9288702928870292</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="1">
+        <v>133</v>
+      </c>
+      <c r="C16" s="1">
+        <v>19</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" si="0"/>
+        <v>114</v>
+      </c>
+      <c r="E16" s="1">
+        <v>96</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="G16" s="1">
+        <v>15</v>
+      </c>
+      <c r="H16" s="1">
+        <v>4</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1</v>
+      </c>
+      <c r="J16" s="2">
+        <f t="shared" si="2"/>
+        <v>14.285714285714285</v>
+      </c>
+      <c r="K16" s="2">
+        <f t="shared" si="3"/>
+        <v>85.714285714285708</v>
+      </c>
+      <c r="L16" s="2">
+        <f t="shared" si="4"/>
+        <v>84.210526315789465</v>
+      </c>
+      <c r="M16" s="2">
+        <f t="shared" si="5"/>
+        <v>15.789473684210526</v>
+      </c>
+      <c r="N16" s="2">
+        <f t="shared" si="6"/>
+        <v>13.157894736842104</v>
+      </c>
+      <c r="O16" s="2">
+        <f t="shared" si="7"/>
+        <v>3.5087719298245612</v>
+      </c>
+      <c r="P16" s="2">
+        <f t="shared" si="8"/>
         <v>0.8771929824561403</v>
       </c>
     </row>
-    <row r="16" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
+    <row r="17" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="3">
-        <f>SUM(B2:B15)</f>
-        <v>2563</v>
-      </c>
-      <c r="C16" s="3">
-        <f>SUM(C2:C15)</f>
-        <v>303</v>
-      </c>
-      <c r="D16" s="3">
-        <f t="shared" ref="D16" si="9">B16-C16</f>
-        <v>2260</v>
-      </c>
-      <c r="E16" s="3">
-        <f>SUM(E2:E15)</f>
-        <v>1634</v>
-      </c>
-      <c r="F16" s="3">
-        <f t="shared" ref="F16" si="10">D16-E16</f>
-        <v>626</v>
-      </c>
-      <c r="G16" s="3">
-        <f>SUM(G2:G15)</f>
-        <v>344</v>
-      </c>
-      <c r="H16" s="3">
-        <f>SUM(H2:H15)</f>
-        <v>295</v>
-      </c>
-      <c r="I16" s="3">
-        <f>SUM(I2:I15)</f>
-        <v>67</v>
-      </c>
-      <c r="J16" s="4">
-        <f t="shared" ref="J16" si="11">C16/B16*100</f>
-        <v>11.822083495903238</v>
-      </c>
-      <c r="K16" s="4">
-        <f t="shared" ref="K16" si="12">D16/B16*100</f>
-        <v>88.177916504096771</v>
-      </c>
-      <c r="L16" s="4">
-        <f t="shared" ref="L16" si="13">E16/D16*100</f>
-        <v>72.30088495575221</v>
-      </c>
-      <c r="M16" s="4">
-        <f t="shared" ref="M16" si="14">F16/D16*100</f>
-        <v>27.699115044247787</v>
-      </c>
-      <c r="N16" s="4">
-        <f t="shared" ref="N16" si="15">G16/D16*100</f>
-        <v>15.221238938053098</v>
-      </c>
-      <c r="O16" s="4">
-        <f t="shared" ref="O16" si="16">H16/D16*100</f>
-        <v>13.053097345132745</v>
-      </c>
-      <c r="P16" s="4">
-        <f t="shared" ref="P16" si="17">I16/D16*100</f>
-        <v>2.9646017699115044</v>
+      <c r="B17" s="3">
+        <f>SUM(B2:B16)</f>
+        <v>3206</v>
+      </c>
+      <c r="C17" s="3">
+        <f>SUM(C2:C16)</f>
+        <v>387</v>
+      </c>
+      <c r="D17" s="3">
+        <f t="shared" ref="D17" si="9">B17-C17</f>
+        <v>2819</v>
+      </c>
+      <c r="E17" s="3">
+        <f>SUM(E2:E16)</f>
+        <v>2006</v>
+      </c>
+      <c r="F17" s="3">
+        <f t="shared" ref="F17" si="10">D17-E17</f>
+        <v>813</v>
+      </c>
+      <c r="G17" s="3">
+        <f>SUM(G2:G16)</f>
+        <v>478</v>
+      </c>
+      <c r="H17" s="3">
+        <f>SUM(H2:H16)</f>
+        <v>334</v>
+      </c>
+      <c r="I17" s="3">
+        <f>SUM(I2:I16)</f>
+        <v>96</v>
+      </c>
+      <c r="J17" s="4">
+        <f t="shared" ref="J17" si="11">C17/B17*100</f>
+        <v>12.071116656269494</v>
+      </c>
+      <c r="K17" s="4">
+        <f t="shared" ref="K17" si="12">D17/B17*100</f>
+        <v>87.928883343730504</v>
+      </c>
+      <c r="L17" s="4">
+        <f t="shared" ref="L17" si="13">E17/D17*100</f>
+        <v>71.159985810571129</v>
+      </c>
+      <c r="M17" s="4">
+        <f t="shared" ref="M17" si="14">F17/D17*100</f>
+        <v>28.840014189428874</v>
+      </c>
+      <c r="N17" s="4">
+        <f t="shared" ref="N17" si="15">G17/D17*100</f>
+        <v>16.956367506207876</v>
+      </c>
+      <c r="O17" s="4">
+        <f t="shared" ref="O17" si="16">H17/D17*100</f>
+        <v>11.848173111032281</v>
+      </c>
+      <c r="P17" s="4">
+        <f t="shared" ref="P17" si="17">I17/D17*100</f>
+        <v>3.4054629301170625</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P15">
-    <sortCondition descending="1" ref="M2:M15"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P16">
+    <sortCondition descending="1" ref="M2:M16"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/data/zotero_data/bar-graph-classification-sorted.xlsx
+++ b/data/zotero_data/bar-graph-classification-sorted.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/zotero_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E322CC8A-A1B9-2E47-94AB-2B01FB95CAF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAEE68B2-6790-EC42-BA25-C4F0BAD2217A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{DB5BE922-A247-3047-A984-8AB957C56D7E}"/>
   </bookViews>
@@ -128,7 +128,7 @@
     <t>Science †</t>
   </si>
   <si>
-    <t>ACS Nano</t>
+    <t>ACS Nano †</t>
   </si>
 </sst>
 </file>
@@ -1017,8 +1017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1700032-B146-0744-B3FB-5A8DD20EC6D5}">
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="134" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1320,58 +1320,58 @@
         <v>31</v>
       </c>
       <c r="B6" s="1">
-        <v>643</v>
+        <v>718</v>
       </c>
       <c r="C6" s="1">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" si="0"/>
-        <v>559</v>
+        <v>631</v>
       </c>
       <c r="E6" s="1">
-        <v>372</v>
+        <v>419</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" si="1"/>
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="G6" s="1">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="H6" s="1">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I6" s="1">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J6" s="2">
         <f t="shared" si="2"/>
-        <v>13.063763608087092</v>
+        <v>12.116991643454039</v>
       </c>
       <c r="K6" s="2">
         <f t="shared" si="3"/>
-        <v>86.936236391912914</v>
+        <v>87.883008356545972</v>
       </c>
       <c r="L6" s="2">
         <f t="shared" si="4"/>
-        <v>66.547406082289811</v>
+        <v>66.402535657686215</v>
       </c>
       <c r="M6" s="2">
         <f t="shared" si="5"/>
-        <v>33.452593917710196</v>
+        <v>33.597464342313785</v>
       </c>
       <c r="N6" s="2">
         <f t="shared" si="6"/>
-        <v>23.971377459749551</v>
+        <v>24.722662440570524</v>
       </c>
       <c r="O6" s="2">
         <f t="shared" si="7"/>
-        <v>6.9767441860465116</v>
+        <v>6.6561014263074476</v>
       </c>
       <c r="P6" s="2">
         <f t="shared" si="8"/>
-        <v>5.1878354203935597</v>
+        <v>4.9128367670364499</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
@@ -1970,63 +1970,63 @@
       </c>
       <c r="B17" s="3">
         <f>SUM(B2:B16)</f>
-        <v>3206</v>
+        <v>3281</v>
       </c>
       <c r="C17" s="3">
         <f>SUM(C2:C16)</f>
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="D17" s="3">
         <f t="shared" ref="D17" si="9">B17-C17</f>
-        <v>2819</v>
+        <v>2891</v>
       </c>
       <c r="E17" s="3">
         <f>SUM(E2:E16)</f>
-        <v>2006</v>
+        <v>2053</v>
       </c>
       <c r="F17" s="3">
         <f t="shared" ref="F17" si="10">D17-E17</f>
-        <v>813</v>
+        <v>838</v>
       </c>
       <c r="G17" s="3">
         <f>SUM(G2:G16)</f>
-        <v>478</v>
+        <v>500</v>
       </c>
       <c r="H17" s="3">
         <f>SUM(H2:H16)</f>
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="I17" s="3">
         <f>SUM(I2:I16)</f>
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J17" s="4">
         <f t="shared" ref="J17" si="11">C17/B17*100</f>
-        <v>12.071116656269494</v>
+        <v>11.886619932947271</v>
       </c>
       <c r="K17" s="4">
         <f t="shared" ref="K17" si="12">D17/B17*100</f>
-        <v>87.928883343730504</v>
+        <v>88.113380067052731</v>
       </c>
       <c r="L17" s="4">
         <f t="shared" ref="L17" si="13">E17/D17*100</f>
-        <v>71.159985810571129</v>
+        <v>71.013490141819432</v>
       </c>
       <c r="M17" s="4">
         <f t="shared" ref="M17" si="14">F17/D17*100</f>
-        <v>28.840014189428874</v>
+        <v>28.986509858180558</v>
       </c>
       <c r="N17" s="4">
         <f t="shared" ref="N17" si="15">G17/D17*100</f>
-        <v>16.956367506207876</v>
+        <v>17.295053614666205</v>
       </c>
       <c r="O17" s="4">
         <f t="shared" ref="O17" si="16">H17/D17*100</f>
-        <v>11.848173111032281</v>
+        <v>11.656866136285023</v>
       </c>
       <c r="P17" s="4">
         <f t="shared" ref="P17" si="17">I17/D17*100</f>
-        <v>3.4054629301170625</v>
+        <v>3.3898305084745761</v>
       </c>
     </row>
   </sheetData>

--- a/data/zotero_data/bar-graph-classification-sorted.xlsx
+++ b/data/zotero_data/bar-graph-classification-sorted.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/zotero_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAEE68B2-6790-EC42-BA25-C4F0BAD2217A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58AFA1A5-6239-974D-9B0C-7419CF95B49A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{DB5BE922-A247-3047-A984-8AB957C56D7E}"/>
   </bookViews>
@@ -1017,8 +1017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1700032-B146-0744-B3FB-5A8DD20EC6D5}">
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="134" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+    <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1320,58 +1320,58 @@
         <v>31</v>
       </c>
       <c r="B6" s="1">
-        <v>718</v>
+        <v>766</v>
       </c>
       <c r="C6" s="1">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" si="0"/>
-        <v>631</v>
+        <v>673</v>
       </c>
       <c r="E6" s="1">
-        <v>419</v>
+        <v>444</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" si="1"/>
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="G6" s="1">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="H6" s="1">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="I6" s="1">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="J6" s="2">
         <f t="shared" si="2"/>
-        <v>12.116991643454039</v>
+        <v>12.140992167101828</v>
       </c>
       <c r="K6" s="2">
         <f t="shared" si="3"/>
-        <v>87.883008356545972</v>
+        <v>87.859007832898172</v>
       </c>
       <c r="L6" s="2">
         <f t="shared" si="4"/>
-        <v>66.402535657686215</v>
+        <v>65.973254086181271</v>
       </c>
       <c r="M6" s="2">
         <f t="shared" si="5"/>
-        <v>33.597464342313785</v>
+        <v>34.026745913818722</v>
       </c>
       <c r="N6" s="2">
         <f t="shared" si="6"/>
-        <v>24.722662440570524</v>
+        <v>24.814264487369986</v>
       </c>
       <c r="O6" s="2">
         <f t="shared" si="7"/>
-        <v>6.6561014263074476</v>
+        <v>7.1322436849925701</v>
       </c>
       <c r="P6" s="2">
         <f t="shared" si="8"/>
-        <v>4.9128367670364499</v>
+        <v>5.052005943536404</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
@@ -1970,63 +1970,63 @@
       </c>
       <c r="B17" s="3">
         <f>SUM(B2:B16)</f>
-        <v>3281</v>
+        <v>3329</v>
       </c>
       <c r="C17" s="3">
         <f>SUM(C2:C16)</f>
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="D17" s="3">
         <f t="shared" ref="D17" si="9">B17-C17</f>
-        <v>2891</v>
+        <v>2933</v>
       </c>
       <c r="E17" s="3">
         <f>SUM(E2:E16)</f>
-        <v>2053</v>
+        <v>2078</v>
       </c>
       <c r="F17" s="3">
         <f t="shared" ref="F17" si="10">D17-E17</f>
-        <v>838</v>
+        <v>855</v>
       </c>
       <c r="G17" s="3">
         <f>SUM(G2:G16)</f>
-        <v>500</v>
+        <v>511</v>
       </c>
       <c r="H17" s="3">
         <f>SUM(H2:H16)</f>
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="I17" s="3">
         <f>SUM(I2:I16)</f>
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="J17" s="4">
         <f t="shared" ref="J17" si="11">C17/B17*100</f>
-        <v>11.886619932947271</v>
+        <v>11.895464103334334</v>
       </c>
       <c r="K17" s="4">
         <f t="shared" ref="K17" si="12">D17/B17*100</f>
-        <v>88.113380067052731</v>
+        <v>88.104535896665666</v>
       </c>
       <c r="L17" s="4">
         <f t="shared" ref="L17" si="13">E17/D17*100</f>
-        <v>71.013490141819432</v>
+        <v>70.848960109103302</v>
       </c>
       <c r="M17" s="4">
         <f t="shared" ref="M17" si="14">F17/D17*100</f>
-        <v>28.986509858180558</v>
+        <v>29.151039890896691</v>
       </c>
       <c r="N17" s="4">
         <f t="shared" ref="N17" si="15">G17/D17*100</f>
-        <v>17.295053614666205</v>
+        <v>17.422434367541769</v>
       </c>
       <c r="O17" s="4">
         <f t="shared" ref="O17" si="16">H17/D17*100</f>
-        <v>11.656866136285023</v>
+        <v>11.694510739856803</v>
       </c>
       <c r="P17" s="4">
         <f t="shared" ref="P17" si="17">I17/D17*100</f>
-        <v>3.3898305084745761</v>
+        <v>3.4435731333106032</v>
       </c>
     </row>
   </sheetData>

--- a/data/zotero_data/bar-graph-classification-sorted.xlsx
+++ b/data/zotero_data/bar-graph-classification-sorted.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/zotero_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58AFA1A5-6239-974D-9B0C-7419CF95B49A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D672785-FF46-764F-94EA-BB8D422DAE65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{DB5BE922-A247-3047-A984-8AB957C56D7E}"/>
   </bookViews>
@@ -1018,7 +1018,7 @@
   <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1320,58 +1320,58 @@
         <v>31</v>
       </c>
       <c r="B6" s="1">
-        <v>766</v>
+        <v>824</v>
       </c>
       <c r="C6" s="1">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" si="0"/>
-        <v>673</v>
+        <v>725</v>
       </c>
       <c r="E6" s="1">
-        <v>444</v>
+        <v>475</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" si="1"/>
-        <v>229</v>
+        <v>250</v>
       </c>
       <c r="G6" s="1">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="H6" s="1">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="I6" s="1">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J6" s="2">
         <f t="shared" si="2"/>
-        <v>12.140992167101828</v>
+        <v>12.014563106796118</v>
       </c>
       <c r="K6" s="2">
         <f t="shared" si="3"/>
-        <v>87.859007832898172</v>
+        <v>87.985436893203882</v>
       </c>
       <c r="L6" s="2">
         <f t="shared" si="4"/>
-        <v>65.973254086181271</v>
+        <v>65.517241379310349</v>
       </c>
       <c r="M6" s="2">
         <f t="shared" si="5"/>
-        <v>34.026745913818722</v>
+        <v>34.482758620689658</v>
       </c>
       <c r="N6" s="2">
         <f t="shared" si="6"/>
-        <v>24.814264487369986</v>
+        <v>24.96551724137931</v>
       </c>
       <c r="O6" s="2">
         <f t="shared" si="7"/>
-        <v>7.1322436849925701</v>
+        <v>7.5862068965517242</v>
       </c>
       <c r="P6" s="2">
         <f t="shared" si="8"/>
-        <v>5.052005943536404</v>
+        <v>4.9655172413793105</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
@@ -1728,7 +1728,7 @@
         <v>2.197802197802198</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
@@ -1746,14 +1746,14 @@
         <v>91</v>
       </c>
       <c r="F13" s="1">
-        <f t="shared" si="1"/>
+        <f>D13-E13</f>
         <v>24</v>
       </c>
       <c r="G13" s="6">
         <v>16</v>
       </c>
       <c r="H13" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I13" s="6">
         <v>2</v>
@@ -1763,7 +1763,7 @@
         <v>12.878787878787879</v>
       </c>
       <c r="K13" s="2">
-        <f t="shared" si="3"/>
+        <f>D13/B13*100</f>
         <v>87.121212121212125</v>
       </c>
       <c r="L13" s="2">
@@ -1780,7 +1780,7 @@
       </c>
       <c r="O13" s="2">
         <f t="shared" si="7"/>
-        <v>5.2173913043478262</v>
+        <v>4.3478260869565215</v>
       </c>
       <c r="P13" s="2">
         <f t="shared" si="8"/>
@@ -1970,63 +1970,63 @@
       </c>
       <c r="B17" s="3">
         <f>SUM(B2:B16)</f>
-        <v>3329</v>
+        <v>3387</v>
       </c>
       <c r="C17" s="3">
         <f>SUM(C2:C16)</f>
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="D17" s="3">
         <f t="shared" ref="D17" si="9">B17-C17</f>
-        <v>2933</v>
+        <v>2985</v>
       </c>
       <c r="E17" s="3">
         <f>SUM(E2:E16)</f>
-        <v>2078</v>
+        <v>2109</v>
       </c>
       <c r="F17" s="3">
         <f t="shared" ref="F17" si="10">D17-E17</f>
-        <v>855</v>
+        <v>876</v>
       </c>
       <c r="G17" s="3">
         <f>SUM(G2:G16)</f>
-        <v>511</v>
+        <v>525</v>
       </c>
       <c r="H17" s="3">
         <f>SUM(H2:H16)</f>
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="I17" s="3">
         <f>SUM(I2:I16)</f>
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J17" s="4">
         <f t="shared" ref="J17" si="11">C17/B17*100</f>
-        <v>11.895464103334334</v>
+        <v>11.868910540301151</v>
       </c>
       <c r="K17" s="4">
         <f t="shared" ref="K17" si="12">D17/B17*100</f>
-        <v>88.104535896665666</v>
+        <v>88.131089459698856</v>
       </c>
       <c r="L17" s="4">
         <f t="shared" ref="L17" si="13">E17/D17*100</f>
-        <v>70.848960109103302</v>
+        <v>70.653266331658287</v>
       </c>
       <c r="M17" s="4">
         <f t="shared" ref="M17" si="14">F17/D17*100</f>
-        <v>29.151039890896691</v>
+        <v>29.346733668341706</v>
       </c>
       <c r="N17" s="4">
         <f t="shared" ref="N17" si="15">G17/D17*100</f>
-        <v>17.422434367541769</v>
+        <v>17.587939698492463</v>
       </c>
       <c r="O17" s="4">
         <f t="shared" ref="O17" si="16">H17/D17*100</f>
-        <v>11.694510739856803</v>
+        <v>11.691792294807369</v>
       </c>
       <c r="P17" s="4">
         <f t="shared" ref="P17" si="17">I17/D17*100</f>
-        <v>3.4435731333106032</v>
+        <v>3.4505862646566166</v>
       </c>
     </row>
   </sheetData>

--- a/data/zotero_data/bar-graph-classification-sorted.xlsx
+++ b/data/zotero_data/bar-graph-classification-sorted.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/zotero_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D672785-FF46-764F-94EA-BB8D422DAE65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D6266CC-0DDF-7C4E-BCD9-AA8A98A4AEDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{DB5BE922-A247-3047-A984-8AB957C56D7E}"/>
+    <workbookView xWindow="780" yWindow="500" windowWidth="37620" windowHeight="21100" xr2:uid="{DB5BE922-A247-3047-A984-8AB957C56D7E}"/>
   </bookViews>
   <sheets>
     <sheet name="bar-data" sheetId="1" r:id="rId1"/>
@@ -1018,7 +1018,7 @@
   <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1258,120 +1258,120 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B5" s="1">
-        <v>116</v>
+        <v>824</v>
       </c>
       <c r="C5" s="1">
-        <v>5</v>
+        <v>99</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" si="0"/>
-        <v>111</v>
+        <v>725</v>
       </c>
       <c r="E5" s="1">
-        <v>73</v>
+        <v>475</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" si="1"/>
-        <v>38</v>
+        <v>250</v>
       </c>
       <c r="G5" s="1">
-        <v>21</v>
+        <v>181</v>
       </c>
       <c r="H5" s="1">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="I5" s="1">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="J5" s="2">
         <f t="shared" si="2"/>
-        <v>4.3103448275862073</v>
+        <v>12.014563106796118</v>
       </c>
       <c r="K5" s="2">
         <f t="shared" si="3"/>
-        <v>95.689655172413794</v>
+        <v>87.985436893203882</v>
       </c>
       <c r="L5" s="2">
         <f t="shared" si="4"/>
-        <v>65.765765765765778</v>
+        <v>65.517241379310349</v>
       </c>
       <c r="M5" s="2">
         <f t="shared" si="5"/>
-        <v>34.234234234234236</v>
+        <v>34.482758620689658</v>
       </c>
       <c r="N5" s="2">
         <f t="shared" si="6"/>
-        <v>18.918918918918919</v>
+        <v>24.96551724137931</v>
       </c>
       <c r="O5" s="2">
         <f t="shared" si="7"/>
-        <v>19.81981981981982</v>
+        <v>7.5862068965517242</v>
       </c>
       <c r="P5" s="2">
         <f t="shared" si="8"/>
-        <v>3.6036036036036037</v>
+        <v>4.9655172413793105</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B6" s="1">
-        <v>824</v>
+        <v>116</v>
       </c>
       <c r="C6" s="1">
-        <v>99</v>
+        <v>5</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" si="0"/>
-        <v>725</v>
+        <f>B6-C6</f>
+        <v>111</v>
       </c>
       <c r="E6" s="1">
-        <v>475</v>
+        <v>73</v>
       </c>
       <c r="F6" s="1">
-        <f t="shared" si="1"/>
-        <v>250</v>
+        <f>D6-E6</f>
+        <v>38</v>
       </c>
       <c r="G6" s="1">
-        <v>181</v>
+        <v>21</v>
       </c>
       <c r="H6" s="1">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="I6" s="1">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="J6" s="2">
-        <f t="shared" si="2"/>
-        <v>12.014563106796118</v>
+        <f>C6/B6*100</f>
+        <v>4.3103448275862073</v>
       </c>
       <c r="K6" s="2">
-        <f t="shared" si="3"/>
-        <v>87.985436893203882</v>
+        <f>D6/B6*100</f>
+        <v>95.689655172413794</v>
       </c>
       <c r="L6" s="2">
-        <f t="shared" si="4"/>
-        <v>65.517241379310349</v>
+        <f>E6/D6*100</f>
+        <v>65.765765765765778</v>
       </c>
       <c r="M6" s="2">
-        <f t="shared" si="5"/>
-        <v>34.482758620689658</v>
+        <f>F6/D6*100</f>
+        <v>34.234234234234236</v>
       </c>
       <c r="N6" s="2">
-        <f t="shared" si="6"/>
-        <v>24.96551724137931</v>
+        <f>G6/D6*100</f>
+        <v>18.918918918918919</v>
       </c>
       <c r="O6" s="2">
-        <f t="shared" si="7"/>
-        <v>7.5862068965517242</v>
+        <f>H6/D6*100</f>
+        <v>19.81981981981982</v>
       </c>
       <c r="P6" s="2">
-        <f t="shared" si="8"/>
-        <v>4.9655172413793105</v>
+        <f>I6/D6*100</f>
+        <v>3.6036036036036037</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">

--- a/data/zotero_data/bar-graph-classification-sorted.xlsx
+++ b/data/zotero_data/bar-graph-classification-sorted.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/zotero_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D6266CC-0DDF-7C4E-BCD9-AA8A98A4AEDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{121D1DB3-55E6-3B40-9639-01137602ECC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="500" windowWidth="37620" windowHeight="21100" xr2:uid="{DB5BE922-A247-3047-A984-8AB957C56D7E}"/>
   </bookViews>
@@ -1018,7 +1018,7 @@
   <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1090,14 +1090,14 @@
         <v>18</v>
       </c>
       <c r="D2" s="1">
-        <f t="shared" ref="D2:D16" si="0">B2-C2</f>
+        <f>B2-C2</f>
         <v>91</v>
       </c>
       <c r="E2" s="1">
         <v>50</v>
       </c>
       <c r="F2" s="1">
-        <f t="shared" ref="F2:F16" si="1">D2-E2</f>
+        <f>D2-E2</f>
         <v>41</v>
       </c>
       <c r="G2" s="1">
@@ -1110,31 +1110,31 @@
         <v>2</v>
       </c>
       <c r="J2" s="2">
-        <f t="shared" ref="J2:J16" si="2">C2/B2*100</f>
+        <f>C2/B2*100</f>
         <v>16.513761467889911</v>
       </c>
       <c r="K2" s="2">
-        <f t="shared" ref="K2:K16" si="3">D2/B2*100</f>
+        <f>D2/B2*100</f>
         <v>83.486238532110093</v>
       </c>
       <c r="L2" s="2">
-        <f t="shared" ref="L2:L16" si="4">E2/D2*100</f>
+        <f>E2/D2*100</f>
         <v>54.945054945054949</v>
       </c>
       <c r="M2" s="2">
-        <f t="shared" ref="M2:M16" si="5">F2/D2*100</f>
+        <f>F2/D2*100</f>
         <v>45.054945054945058</v>
       </c>
       <c r="N2" s="2">
-        <f t="shared" ref="N2:N16" si="6">G2/D2*100</f>
+        <f>G2/D2*100</f>
         <v>25.274725274725274</v>
       </c>
       <c r="O2" s="2">
-        <f t="shared" ref="O2:O16" si="7">H2/D2*100</f>
+        <f>H2/D2*100</f>
         <v>23.076923076923077</v>
       </c>
       <c r="P2" s="2">
-        <f t="shared" ref="P2:P16" si="8">I2/D2*100</f>
+        <f>I2/D2*100</f>
         <v>2.197802197802198</v>
       </c>
     </row>
@@ -1149,14 +1149,14 @@
         <v>14</v>
       </c>
       <c r="D3" s="1">
-        <f t="shared" si="0"/>
+        <f>B3-C3</f>
         <v>283</v>
       </c>
       <c r="E3" s="6">
         <v>177</v>
       </c>
       <c r="F3" s="1">
-        <f t="shared" si="1"/>
+        <f>D3-E3</f>
         <v>106</v>
       </c>
       <c r="G3" s="6">
@@ -1169,31 +1169,31 @@
         <v>9</v>
       </c>
       <c r="J3" s="2">
-        <f t="shared" si="2"/>
+        <f>C3/B3*100</f>
         <v>4.7138047138047137</v>
       </c>
       <c r="K3" s="2">
-        <f t="shared" si="3"/>
+        <f>D3/B3*100</f>
         <v>95.28619528619528</v>
       </c>
       <c r="L3" s="2">
-        <f t="shared" si="4"/>
+        <f>E3/D3*100</f>
         <v>62.544169611307424</v>
       </c>
       <c r="M3" s="2">
-        <f t="shared" si="5"/>
+        <f>F3/D3*100</f>
         <v>37.455830388692576</v>
       </c>
       <c r="N3" s="2">
-        <f t="shared" si="6"/>
+        <f>G3/D3*100</f>
         <v>16.96113074204947</v>
       </c>
       <c r="O3" s="2">
-        <f t="shared" si="7"/>
+        <f>H3/D3*100</f>
         <v>21.201413427561839</v>
       </c>
       <c r="P3" s="2">
-        <f t="shared" si="8"/>
+        <f>I3/D3*100</f>
         <v>3.1802120141342751</v>
       </c>
     </row>
@@ -1208,14 +1208,14 @@
         <v>24</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" si="0"/>
+        <f>B4-C4</f>
         <v>224</v>
       </c>
       <c r="E4" s="1">
         <v>141</v>
       </c>
       <c r="F4" s="1">
-        <f t="shared" si="1"/>
+        <f>D4-E4</f>
         <v>83</v>
       </c>
       <c r="G4" s="1">
@@ -1228,31 +1228,31 @@
         <v>18</v>
       </c>
       <c r="J4" s="2">
-        <f t="shared" si="2"/>
+        <f>C4/B4*100</f>
         <v>9.67741935483871</v>
       </c>
       <c r="K4" s="2">
-        <f t="shared" si="3"/>
+        <f>D4/B4*100</f>
         <v>90.322580645161281</v>
       </c>
       <c r="L4" s="2">
-        <f t="shared" si="4"/>
+        <f>E4/D4*100</f>
         <v>62.946428571428569</v>
       </c>
       <c r="M4" s="2">
-        <f t="shared" si="5"/>
+        <f>F4/D4*100</f>
         <v>37.053571428571431</v>
       </c>
       <c r="N4" s="2">
-        <f t="shared" si="6"/>
+        <f>G4/D4*100</f>
         <v>20.089285714285715</v>
       </c>
       <c r="O4" s="2">
-        <f t="shared" si="7"/>
+        <f>H4/D4*100</f>
         <v>15.625</v>
       </c>
       <c r="P4" s="2">
-        <f t="shared" si="8"/>
+        <f>I4/D4*100</f>
         <v>8.0357142857142865</v>
       </c>
     </row>
@@ -1267,51 +1267,51 @@
         <v>99</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" si="0"/>
+        <f>B5-C5</f>
         <v>725</v>
       </c>
       <c r="E5" s="1">
         <v>475</v>
       </c>
       <c r="F5" s="1">
-        <f t="shared" si="1"/>
+        <f>D5-E5</f>
         <v>250</v>
       </c>
       <c r="G5" s="1">
         <v>181</v>
       </c>
       <c r="H5" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I5" s="1">
         <v>36</v>
       </c>
       <c r="J5" s="2">
-        <f t="shared" si="2"/>
+        <f>C5/B5*100</f>
         <v>12.014563106796118</v>
       </c>
       <c r="K5" s="2">
-        <f t="shared" si="3"/>
+        <f>D5/B5*100</f>
         <v>87.985436893203882</v>
       </c>
       <c r="L5" s="2">
-        <f t="shared" si="4"/>
+        <f>E5/D5*100</f>
         <v>65.517241379310349</v>
       </c>
       <c r="M5" s="2">
-        <f t="shared" si="5"/>
+        <f>F5/D5*100</f>
         <v>34.482758620689658</v>
       </c>
       <c r="N5" s="2">
-        <f t="shared" si="6"/>
+        <f>G5/D5*100</f>
         <v>24.96551724137931</v>
       </c>
       <c r="O5" s="2">
-        <f t="shared" si="7"/>
-        <v>7.5862068965517242</v>
+        <f>H5/D5*100</f>
+        <v>7.7241379310344831</v>
       </c>
       <c r="P5" s="2">
-        <f t="shared" si="8"/>
+        <f>I5/D5*100</f>
         <v>4.9655172413793105</v>
       </c>
     </row>
@@ -1337,7 +1337,7 @@
         <v>38</v>
       </c>
       <c r="G6" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H6" s="1">
         <v>22</v>
@@ -1363,7 +1363,7 @@
       </c>
       <c r="N6" s="2">
         <f>G6/D6*100</f>
-        <v>18.918918918918919</v>
+        <v>18.018018018018019</v>
       </c>
       <c r="O6" s="2">
         <f>H6/D6*100</f>
@@ -1385,14 +1385,14 @@
         <v>0</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" si="0"/>
+        <f>B7-C7</f>
         <v>75</v>
       </c>
       <c r="E7" s="1">
         <v>53</v>
       </c>
       <c r="F7" s="1">
-        <f t="shared" si="1"/>
+        <f>D7-E7</f>
         <v>22</v>
       </c>
       <c r="G7" s="1">
@@ -1405,150 +1405,150 @@
         <v>3</v>
       </c>
       <c r="J7" s="2">
-        <f t="shared" si="2"/>
+        <f>C7/B7*100</f>
         <v>0</v>
       </c>
       <c r="K7" s="2">
-        <f t="shared" si="3"/>
+        <f>D7/B7*100</f>
         <v>100</v>
       </c>
       <c r="L7" s="2">
-        <f t="shared" si="4"/>
+        <f>E7/D7*100</f>
         <v>70.666666666666671</v>
       </c>
       <c r="M7" s="2">
-        <f t="shared" si="5"/>
+        <f>F7/D7*100</f>
         <v>29.333333333333332</v>
       </c>
       <c r="N7" s="2">
-        <f t="shared" si="6"/>
+        <f>G7/D7*100</f>
         <v>9.3333333333333339</v>
       </c>
       <c r="O7" s="2">
-        <f t="shared" si="7"/>
+        <f>H7/D7*100</f>
         <v>22.666666666666664</v>
       </c>
       <c r="P7" s="2">
-        <f t="shared" si="8"/>
+        <f>I7/D7*100</f>
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="1">
-        <v>55</v>
-      </c>
-      <c r="C8" s="1">
+        <v>29</v>
+      </c>
+      <c r="B8" s="6">
+        <v>554</v>
+      </c>
+      <c r="C8" s="6">
+        <v>67</v>
+      </c>
+      <c r="D8" s="1">
+        <f>B8-C8</f>
+        <v>487</v>
+      </c>
+      <c r="E8" s="6">
+        <v>357</v>
+      </c>
+      <c r="F8" s="1">
+        <f>D8-E8</f>
+        <v>130</v>
+      </c>
+      <c r="G8" s="6">
+        <v>79</v>
+      </c>
+      <c r="H8" s="6">
+        <v>59</v>
+      </c>
+      <c r="I8" s="6">
         <v>10</v>
       </c>
-      <c r="D8" s="1">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="E8" s="1">
-        <v>33</v>
-      </c>
-      <c r="F8" s="1">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="G8" s="1">
-        <v>6</v>
-      </c>
-      <c r="H8" s="1">
-        <v>5</v>
-      </c>
-      <c r="I8" s="1">
-        <v>2</v>
-      </c>
       <c r="J8" s="2">
-        <f t="shared" si="2"/>
-        <v>18.181818181818183</v>
+        <f>C8/B8*100</f>
+        <v>12.093862815884476</v>
       </c>
       <c r="K8" s="2">
-        <f t="shared" si="3"/>
-        <v>81.818181818181827</v>
+        <f>D8/B8*100</f>
+        <v>87.906137184115522</v>
       </c>
       <c r="L8" s="2">
-        <f t="shared" si="4"/>
-        <v>73.333333333333329</v>
+        <f>E8/D8*100</f>
+        <v>73.30595482546201</v>
       </c>
       <c r="M8" s="2">
-        <f t="shared" si="5"/>
-        <v>26.666666666666668</v>
+        <f>F8/D8*100</f>
+        <v>26.69404517453799</v>
       </c>
       <c r="N8" s="2">
-        <f t="shared" si="6"/>
-        <v>13.333333333333334</v>
+        <f>G8/D8*100</f>
+        <v>16.2217659137577</v>
       </c>
       <c r="O8" s="2">
-        <f t="shared" si="7"/>
-        <v>11.111111111111111</v>
+        <f>H8/D8*100</f>
+        <v>12.114989733059549</v>
       </c>
       <c r="P8" s="2">
-        <f t="shared" si="8"/>
-        <v>4.4444444444444446</v>
+        <f>I8/D8*100</f>
+        <v>2.0533880903490758</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="6">
-        <v>554</v>
-      </c>
-      <c r="C9" s="6">
-        <v>67</v>
+        <v>28</v>
+      </c>
+      <c r="B9" s="1">
+        <v>55</v>
+      </c>
+      <c r="C9" s="1">
+        <v>10</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" si="0"/>
-        <v>487</v>
-      </c>
-      <c r="E9" s="6">
-        <v>357</v>
+        <f>B9-C9</f>
+        <v>45</v>
+      </c>
+      <c r="E9" s="1">
+        <v>33</v>
       </c>
       <c r="F9" s="1">
-        <f t="shared" si="1"/>
-        <v>130</v>
-      </c>
-      <c r="G9" s="6">
-        <v>79</v>
-      </c>
-      <c r="H9" s="6">
-        <v>59</v>
-      </c>
-      <c r="I9" s="6">
-        <v>10</v>
+        <f>D9-E9</f>
+        <v>12</v>
+      </c>
+      <c r="G9" s="1">
+        <v>6</v>
+      </c>
+      <c r="H9" s="1">
+        <v>5</v>
+      </c>
+      <c r="I9" s="1">
+        <v>2</v>
       </c>
       <c r="J9" s="2">
-        <f t="shared" si="2"/>
-        <v>12.093862815884476</v>
+        <f>C9/B9*100</f>
+        <v>18.181818181818183</v>
       </c>
       <c r="K9" s="2">
-        <f t="shared" si="3"/>
-        <v>87.906137184115522</v>
+        <f>D9/B9*100</f>
+        <v>81.818181818181827</v>
       </c>
       <c r="L9" s="2">
-        <f t="shared" si="4"/>
-        <v>73.30595482546201</v>
+        <f>E9/D9*100</f>
+        <v>73.333333333333329</v>
       </c>
       <c r="M9" s="2">
-        <f t="shared" si="5"/>
-        <v>26.69404517453799</v>
+        <f>F9/D9*100</f>
+        <v>26.666666666666668</v>
       </c>
       <c r="N9" s="2">
-        <f t="shared" si="6"/>
-        <v>16.2217659137577</v>
+        <f>G9/D9*100</f>
+        <v>13.333333333333334</v>
       </c>
       <c r="O9" s="2">
-        <f t="shared" si="7"/>
-        <v>12.114989733059549</v>
+        <f>H9/D9*100</f>
+        <v>11.111111111111111</v>
       </c>
       <c r="P9" s="2">
-        <f t="shared" si="8"/>
-        <v>2.0533880903490758</v>
+        <f>I9/D9*100</f>
+        <v>4.4444444444444446</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
@@ -1562,14 +1562,14 @@
         <v>17</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" si="0"/>
+        <f>B10-C10</f>
         <v>140</v>
       </c>
       <c r="E10" s="1">
         <v>103</v>
       </c>
       <c r="F10" s="1">
-        <f t="shared" si="1"/>
+        <f>D10-E10</f>
         <v>37</v>
       </c>
       <c r="G10" s="1">
@@ -1582,31 +1582,31 @@
         <v>5</v>
       </c>
       <c r="J10" s="2">
-        <f t="shared" si="2"/>
+        <f>C10/B10*100</f>
         <v>10.828025477707007</v>
       </c>
       <c r="K10" s="2">
-        <f t="shared" si="3"/>
+        <f>D10/B10*100</f>
         <v>89.171974522292999</v>
       </c>
       <c r="L10" s="2">
-        <f t="shared" si="4"/>
+        <f>E10/D10*100</f>
         <v>73.571428571428584</v>
       </c>
       <c r="M10" s="2">
-        <f t="shared" si="5"/>
+        <f>F10/D10*100</f>
         <v>26.428571428571431</v>
       </c>
       <c r="N10" s="2">
-        <f t="shared" si="6"/>
+        <f>G10/D10*100</f>
         <v>8.5714285714285712</v>
       </c>
       <c r="O10" s="2">
-        <f t="shared" si="7"/>
+        <f>H10/D10*100</f>
         <v>17.142857142857142</v>
       </c>
       <c r="P10" s="2">
-        <f t="shared" si="8"/>
+        <f>I10/D10*100</f>
         <v>3.5714285714285712</v>
       </c>
     </row>
@@ -1621,14 +1621,14 @@
         <v>3</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" si="0"/>
+        <f>B11-C11</f>
         <v>117</v>
       </c>
       <c r="E11" s="1">
         <v>90</v>
       </c>
       <c r="F11" s="1">
-        <f t="shared" si="1"/>
+        <f>D11-E11</f>
         <v>27</v>
       </c>
       <c r="G11" s="1">
@@ -1641,31 +1641,31 @@
         <v>1</v>
       </c>
       <c r="J11" s="2">
-        <f t="shared" si="2"/>
+        <f>C11/B11*100</f>
         <v>2.5</v>
       </c>
       <c r="K11" s="2">
-        <f t="shared" si="3"/>
+        <f>D11/B11*100</f>
         <v>97.5</v>
       </c>
       <c r="L11" s="2">
-        <f t="shared" si="4"/>
+        <f>E11/D11*100</f>
         <v>76.923076923076934</v>
       </c>
       <c r="M11" s="2">
-        <f t="shared" si="5"/>
+        <f>F11/D11*100</f>
         <v>23.076923076923077</v>
       </c>
       <c r="N11" s="2">
-        <f t="shared" si="6"/>
+        <f>G11/D11*100</f>
         <v>14.529914529914532</v>
       </c>
       <c r="O11" s="2">
-        <f t="shared" si="7"/>
+        <f>H11/D11*100</f>
         <v>10.256410256410255</v>
       </c>
       <c r="P11" s="2">
-        <f t="shared" si="8"/>
+        <f>I11/D11*100</f>
         <v>0.85470085470085477</v>
       </c>
     </row>
@@ -1680,51 +1680,51 @@
         <v>10</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" si="0"/>
+        <f>B12-C12</f>
         <v>91</v>
       </c>
       <c r="E12" s="1">
         <v>71</v>
       </c>
       <c r="F12" s="1">
-        <f t="shared" si="1"/>
+        <f>D12-E12</f>
         <v>20</v>
       </c>
       <c r="G12" s="1">
         <v>14</v>
       </c>
       <c r="H12" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I12" s="1">
         <v>2</v>
       </c>
       <c r="J12" s="2">
-        <f t="shared" si="2"/>
+        <f>C12/B12*100</f>
         <v>9.9009900990099009</v>
       </c>
       <c r="K12" s="2">
-        <f t="shared" si="3"/>
+        <f>D12/B12*100</f>
         <v>90.099009900990097</v>
       </c>
       <c r="L12" s="2">
-        <f t="shared" si="4"/>
+        <f>E12/D12*100</f>
         <v>78.021978021978029</v>
       </c>
       <c r="M12" s="2">
-        <f t="shared" si="5"/>
+        <f>F12/D12*100</f>
         <v>21.978021978021978</v>
       </c>
       <c r="N12" s="2">
-        <f t="shared" si="6"/>
+        <f>G12/D12*100</f>
         <v>15.384615384615385</v>
       </c>
       <c r="O12" s="2">
-        <f t="shared" si="7"/>
-        <v>6.593406593406594</v>
+        <f>H12/D12*100</f>
+        <v>7.6923076923076925</v>
       </c>
       <c r="P12" s="2">
-        <f t="shared" si="8"/>
+        <f>I12/D12*100</f>
         <v>2.197802197802198</v>
       </c>
     </row>
@@ -1739,7 +1739,7 @@
         <v>17</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" si="0"/>
+        <f>B13-C13</f>
         <v>115</v>
       </c>
       <c r="E13" s="6">
@@ -1759,7 +1759,7 @@
         <v>2</v>
       </c>
       <c r="J13" s="2">
-        <f t="shared" si="2"/>
+        <f>C13/B13*100</f>
         <v>12.878787878787879</v>
       </c>
       <c r="K13" s="2">
@@ -1767,23 +1767,23 @@
         <v>87.121212121212125</v>
       </c>
       <c r="L13" s="2">
-        <f t="shared" si="4"/>
+        <f>E13/D13*100</f>
         <v>79.130434782608688</v>
       </c>
       <c r="M13" s="2">
-        <f t="shared" si="5"/>
+        <f>F13/D13*100</f>
         <v>20.869565217391305</v>
       </c>
       <c r="N13" s="2">
-        <f t="shared" si="6"/>
+        <f>G13/D13*100</f>
         <v>13.913043478260869</v>
       </c>
       <c r="O13" s="2">
-        <f t="shared" si="7"/>
+        <f>H13/D13*100</f>
         <v>4.3478260869565215</v>
       </c>
       <c r="P13" s="2">
-        <f t="shared" si="8"/>
+        <f>I13/D13*100</f>
         <v>1.7391304347826086</v>
       </c>
     </row>
@@ -1798,14 +1798,14 @@
         <v>25</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" si="0"/>
+        <f>B14-C14</f>
         <v>128</v>
       </c>
       <c r="E14" s="1">
         <v>103</v>
       </c>
       <c r="F14" s="1">
-        <f t="shared" si="1"/>
+        <f>D14-E14</f>
         <v>25</v>
       </c>
       <c r="G14" s="1">
@@ -1818,31 +1818,31 @@
         <v>1</v>
       </c>
       <c r="J14" s="2">
-        <f t="shared" si="2"/>
+        <f>C14/B14*100</f>
         <v>16.33986928104575</v>
       </c>
       <c r="K14" s="2">
-        <f t="shared" si="3"/>
+        <f>D14/B14*100</f>
         <v>83.66013071895425</v>
       </c>
       <c r="L14" s="2">
-        <f t="shared" si="4"/>
+        <f>E14/D14*100</f>
         <v>80.46875</v>
       </c>
       <c r="M14" s="2">
-        <f t="shared" si="5"/>
+        <f>F14/D14*100</f>
         <v>19.53125</v>
       </c>
       <c r="N14" s="2">
-        <f t="shared" si="6"/>
+        <f>G14/D14*100</f>
         <v>14.84375</v>
       </c>
       <c r="O14" s="2">
-        <f t="shared" si="7"/>
+        <f>H14/D14*100</f>
         <v>4.6875</v>
       </c>
       <c r="P14" s="2">
-        <f t="shared" si="8"/>
+        <f>I14/D14*100</f>
         <v>0.78125</v>
       </c>
     </row>
@@ -1857,14 +1857,14 @@
         <v>74</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" si="0"/>
+        <f>B15-C15</f>
         <v>239</v>
       </c>
       <c r="E15" s="1">
         <v>196</v>
       </c>
       <c r="F15" s="1">
-        <f t="shared" si="1"/>
+        <f>D15-E15</f>
         <v>43</v>
       </c>
       <c r="G15" s="1">
@@ -1877,31 +1877,31 @@
         <v>7</v>
       </c>
       <c r="J15" s="2">
-        <f t="shared" si="2"/>
+        <f>C15/B15*100</f>
         <v>23.642172523961662</v>
       </c>
       <c r="K15" s="2">
-        <f t="shared" si="3"/>
+        <f>D15/B15*100</f>
         <v>76.357827476038338</v>
       </c>
       <c r="L15" s="2">
-        <f t="shared" si="4"/>
+        <f>E15/D15*100</f>
         <v>82.008368200836827</v>
       </c>
       <c r="M15" s="2">
-        <f t="shared" si="5"/>
+        <f>F15/D15*100</f>
         <v>17.99163179916318</v>
       </c>
       <c r="N15" s="2">
-        <f t="shared" si="6"/>
+        <f>G15/D15*100</f>
         <v>9.2050209205020916</v>
       </c>
       <c r="O15" s="2">
-        <f t="shared" si="7"/>
+        <f>H15/D15*100</f>
         <v>7.5313807531380759</v>
       </c>
       <c r="P15" s="2">
-        <f t="shared" si="8"/>
+        <f>I15/D15*100</f>
         <v>2.9288702928870292</v>
       </c>
     </row>
@@ -1916,14 +1916,14 @@
         <v>19</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" si="0"/>
+        <f>B16-C16</f>
         <v>114</v>
       </c>
       <c r="E16" s="1">
         <v>96</v>
       </c>
       <c r="F16" s="1">
-        <f t="shared" si="1"/>
+        <f>D16-E16</f>
         <v>18</v>
       </c>
       <c r="G16" s="1">
@@ -1936,31 +1936,31 @@
         <v>1</v>
       </c>
       <c r="J16" s="2">
-        <f t="shared" si="2"/>
+        <f>C16/B16*100</f>
         <v>14.285714285714285</v>
       </c>
       <c r="K16" s="2">
-        <f t="shared" si="3"/>
+        <f>D16/B16*100</f>
         <v>85.714285714285708</v>
       </c>
       <c r="L16" s="2">
-        <f t="shared" si="4"/>
+        <f>E16/D16*100</f>
         <v>84.210526315789465</v>
       </c>
       <c r="M16" s="2">
-        <f t="shared" si="5"/>
+        <f>F16/D16*100</f>
         <v>15.789473684210526</v>
       </c>
       <c r="N16" s="2">
-        <f t="shared" si="6"/>
+        <f>G16/D16*100</f>
         <v>13.157894736842104</v>
       </c>
       <c r="O16" s="2">
-        <f t="shared" si="7"/>
+        <f>H16/D16*100</f>
         <v>3.5087719298245612</v>
       </c>
       <c r="P16" s="2">
-        <f t="shared" si="8"/>
+        <f>I16/D16*100</f>
         <v>0.8771929824561403</v>
       </c>
     </row>
@@ -1977,7 +1977,7 @@
         <v>402</v>
       </c>
       <c r="D17" s="3">
-        <f t="shared" ref="D17" si="9">B17-C17</f>
+        <f>B17-C17</f>
         <v>2985</v>
       </c>
       <c r="E17" s="3">
@@ -1985,47 +1985,47 @@
         <v>2109</v>
       </c>
       <c r="F17" s="3">
-        <f t="shared" ref="F17" si="10">D17-E17</f>
+        <f>SUM(F2:F16)</f>
         <v>876</v>
       </c>
       <c r="G17" s="3">
         <f>SUM(G2:G16)</f>
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H17" s="3">
         <f>SUM(H2:H16)</f>
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="I17" s="3">
         <f>SUM(I2:I16)</f>
         <v>103</v>
       </c>
       <c r="J17" s="4">
-        <f t="shared" ref="J17" si="11">C17/B17*100</f>
+        <f>C17/B17*100</f>
         <v>11.868910540301151</v>
       </c>
       <c r="K17" s="4">
-        <f t="shared" ref="K17" si="12">D17/B17*100</f>
+        <f>D17/B17*100</f>
         <v>88.131089459698856</v>
       </c>
       <c r="L17" s="4">
-        <f t="shared" ref="L17" si="13">E17/D17*100</f>
+        <f>E17/D17*100</f>
         <v>70.653266331658287</v>
       </c>
       <c r="M17" s="4">
-        <f t="shared" ref="M17" si="14">F17/D17*100</f>
+        <f>F17/D17*100</f>
         <v>29.346733668341706</v>
       </c>
       <c r="N17" s="4">
-        <f t="shared" ref="N17" si="15">G17/D17*100</f>
-        <v>17.587939698492463</v>
+        <f>G17/D17*100</f>
+        <v>17.554438860971526</v>
       </c>
       <c r="O17" s="4">
-        <f t="shared" ref="O17" si="16">H17/D17*100</f>
-        <v>11.691792294807369</v>
+        <f>H17/D17*100</f>
+        <v>11.758793969849247</v>
       </c>
       <c r="P17" s="4">
-        <f t="shared" ref="P17" si="17">I17/D17*100</f>
+        <f>I17/D17*100</f>
         <v>3.4505862646566166</v>
       </c>
     </row>
